--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6277,28 +6277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>854.7610516106065</v>
+        <v>976.5464655467961</v>
       </c>
       <c r="AB2" t="n">
-        <v>1169.521780209834</v>
+        <v>1336.153956350598</v>
       </c>
       <c r="AC2" t="n">
-        <v>1057.904262940734</v>
+        <v>1208.633298060352</v>
       </c>
       <c r="AD2" t="n">
-        <v>854761.0516106065</v>
+        <v>976546.4655467961</v>
       </c>
       <c r="AE2" t="n">
-        <v>1169521.780209834</v>
+        <v>1336153.956350598</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.79466331538419e-07</v>
+        <v>1.442216788878818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1057904.262940734</v>
+        <v>1208633.298060352</v>
       </c>
     </row>
     <row r="3">
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.8006522452778</v>
+        <v>697.169946049576</v>
       </c>
       <c r="AB3" t="n">
-        <v>837.092643141856</v>
+        <v>953.8986771523324</v>
       </c>
       <c r="AC3" t="n">
-        <v>757.2016961473</v>
+        <v>862.8599262101151</v>
       </c>
       <c r="AD3" t="n">
-        <v>611800.6522452778</v>
+        <v>697169.9460495759</v>
       </c>
       <c r="AE3" t="n">
-        <v>837092.643141856</v>
+        <v>953898.6771523324</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004455131014338e-06</v>
+        <v>1.858504973223399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>757201.6961473001</v>
+        <v>862859.9262101151</v>
       </c>
     </row>
     <row r="4">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.3774208552117</v>
+        <v>634.7715440554938</v>
       </c>
       <c r="AB4" t="n">
-        <v>735.263494632724</v>
+        <v>868.5224307208177</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.090978653772</v>
+        <v>785.6318689117096</v>
       </c>
       <c r="AD4" t="n">
-        <v>537377.4208552117</v>
+        <v>634771.5440554938</v>
       </c>
       <c r="AE4" t="n">
-        <v>735263.494632724</v>
+        <v>868522.4307208178</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.093876449698044e-06</v>
+        <v>2.023957824579773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.89322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>665090.978653772</v>
+        <v>785631.8689117096</v>
       </c>
     </row>
     <row r="5">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>513.9745159368606</v>
+        <v>599.1731280320156</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.2426076601388</v>
+        <v>819.8151074262198</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.1261201922531</v>
+        <v>741.5731041911905</v>
       </c>
       <c r="AD5" t="n">
-        <v>513974.5159368606</v>
+        <v>599173.1280320156</v>
       </c>
       <c r="AE5" t="n">
-        <v>703242.6076601387</v>
+        <v>819815.1074262199</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141586492869407e-06</v>
+        <v>2.112233895624521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.31380208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>636126.1201922531</v>
+        <v>741573.1041911906</v>
       </c>
     </row>
     <row r="6">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.9720843289441</v>
+        <v>574.1457775195641</v>
       </c>
       <c r="AB6" t="n">
-        <v>685.4521071073892</v>
+        <v>785.5715823263046</v>
       </c>
       <c r="AC6" t="n">
-        <v>620.0335200431338</v>
+        <v>710.5977330657219</v>
       </c>
       <c r="AD6" t="n">
-        <v>500972.0843289441</v>
+        <v>574145.7775195641</v>
       </c>
       <c r="AE6" t="n">
-        <v>685452.1071073893</v>
+        <v>785571.5823263045</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16868598412281e-06</v>
+        <v>2.162375049481151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>620033.5200431338</v>
+        <v>710597.7330657218</v>
       </c>
     </row>
     <row r="7">
@@ -6807,28 +6807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>478.1612310214513</v>
+        <v>563.4450944626268</v>
       </c>
       <c r="AB7" t="n">
-        <v>654.2412912682539</v>
+        <v>770.9304356869844</v>
       </c>
       <c r="AC7" t="n">
-        <v>591.8014206630305</v>
+        <v>697.35391691268</v>
       </c>
       <c r="AD7" t="n">
-        <v>478161.2310214513</v>
+        <v>563445.0944626268</v>
       </c>
       <c r="AE7" t="n">
-        <v>654241.2912682539</v>
+        <v>770930.4356869844</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>2.204137750410834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.75390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>591801.4206630305</v>
+        <v>697353.91691268</v>
       </c>
     </row>
     <row r="8">
@@ -6913,28 +6913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>471.9200710324568</v>
+        <v>557.2039344736323</v>
       </c>
       <c r="AB8" t="n">
-        <v>645.7018608307657</v>
+        <v>762.3910052494961</v>
       </c>
       <c r="AC8" t="n">
-        <v>584.07698148133</v>
+        <v>689.6294777309797</v>
       </c>
       <c r="AD8" t="n">
-        <v>471920.0710324568</v>
+        <v>557203.9344736324</v>
       </c>
       <c r="AE8" t="n">
-        <v>645701.8608307657</v>
+        <v>762391.0052494961</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.204491858009733e-06</v>
+        <v>2.228625290666397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>584076.98148133</v>
+        <v>689629.4777309797</v>
       </c>
     </row>
     <row r="9">
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>465.6855645517173</v>
+        <v>538.7739168877656</v>
       </c>
       <c r="AB9" t="n">
-        <v>637.1715340168034</v>
+        <v>737.1742421135211</v>
       </c>
       <c r="AC9" t="n">
-        <v>576.3607770861036</v>
+        <v>666.8193670767528</v>
       </c>
       <c r="AD9" t="n">
-        <v>465685.5645517173</v>
+        <v>538773.9168877656</v>
       </c>
       <c r="AE9" t="n">
-        <v>637171.5340168035</v>
+        <v>737174.2421135211</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.216209295226967e-06</v>
+        <v>2.250305617312416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.49348958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>576360.7770861036</v>
+        <v>666819.3670767528</v>
       </c>
     </row>
     <row r="10">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>459.8181043944928</v>
+        <v>532.9064567305414</v>
       </c>
       <c r="AB10" t="n">
-        <v>629.1434161756159</v>
+        <v>729.1461242723337</v>
       </c>
       <c r="AC10" t="n">
-        <v>569.0988515441451</v>
+        <v>659.5574415347942</v>
       </c>
       <c r="AD10" t="n">
-        <v>459818.1043944928</v>
+        <v>532906.4567305414</v>
       </c>
       <c r="AE10" t="n">
-        <v>629143.416175616</v>
+        <v>729146.1242723337</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227576609818187e-06</v>
+        <v>2.271338125433156e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.37630208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>569098.851544145</v>
+        <v>659557.4415347942</v>
       </c>
     </row>
     <row r="11">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>457.5988141754025</v>
+        <v>530.687166511451</v>
       </c>
       <c r="AB11" t="n">
-        <v>626.1068853896821</v>
+        <v>726.1095934863998</v>
       </c>
       <c r="AC11" t="n">
-        <v>566.3521229946228</v>
+        <v>656.8107129852721</v>
       </c>
       <c r="AD11" t="n">
-        <v>457598.8141754025</v>
+        <v>530687.166511451</v>
       </c>
       <c r="AE11" t="n">
-        <v>626106.8853896821</v>
+        <v>726109.5934863999</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.230821079485907e-06</v>
+        <v>2.277341243767413e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH11" t="n">
-        <v>566352.1229946228</v>
+        <v>656810.7129852721</v>
       </c>
     </row>
     <row r="12">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>452.8700139690671</v>
+        <v>525.9583663051156</v>
       </c>
       <c r="AB12" t="n">
-        <v>619.6367323274326</v>
+        <v>719.6394404241503</v>
       </c>
       <c r="AC12" t="n">
-        <v>560.4994722597175</v>
+        <v>650.9580622503668</v>
       </c>
       <c r="AD12" t="n">
-        <v>452870.0139690671</v>
+        <v>525958.3663051156</v>
       </c>
       <c r="AE12" t="n">
-        <v>619636.7323274326</v>
+        <v>719639.4404241503</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239690852678235e-06</v>
+        <v>2.293752646407826e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>560499.4722597175</v>
+        <v>650958.0622503668</v>
       </c>
     </row>
     <row r="13">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>450.0904776312053</v>
+        <v>523.1788299672538</v>
       </c>
       <c r="AB13" t="n">
-        <v>615.8336480854814</v>
+        <v>715.836356182199</v>
       </c>
       <c r="AC13" t="n">
-        <v>557.0593490401559</v>
+        <v>647.5179390308051</v>
       </c>
       <c r="AD13" t="n">
-        <v>450090.4776312053</v>
+        <v>523178.8299672538</v>
       </c>
       <c r="AE13" t="n">
-        <v>615833.6480854814</v>
+        <v>715836.356182199</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243285444971968e-06</v>
+        <v>2.300403583267361e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>557059.3490401559</v>
+        <v>647517.9390308051</v>
       </c>
     </row>
     <row r="14">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>447.2192537511181</v>
+        <v>520.3076060871666</v>
       </c>
       <c r="AB14" t="n">
-        <v>611.9051129032883</v>
+        <v>711.9078210000059</v>
       </c>
       <c r="AC14" t="n">
-        <v>553.5057477420177</v>
+        <v>643.9643377326669</v>
       </c>
       <c r="AD14" t="n">
-        <v>447219.2537511181</v>
+        <v>520307.6060871666</v>
       </c>
       <c r="AE14" t="n">
-        <v>611905.1129032883</v>
+        <v>711907.8210000059</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.246716646706895e-06</v>
+        <v>2.3067522048151e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH14" t="n">
-        <v>553505.7477420176</v>
+        <v>643964.3377326669</v>
       </c>
     </row>
     <row r="15">
@@ -7655,28 +7655,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>444.6015033345348</v>
+        <v>517.6898556705834</v>
       </c>
       <c r="AB15" t="n">
-        <v>608.3233912963213</v>
+        <v>708.3260993930389</v>
       </c>
       <c r="AC15" t="n">
-        <v>550.2658606182416</v>
+        <v>640.7244506088908</v>
       </c>
       <c r="AD15" t="n">
-        <v>444601.5033345348</v>
+        <v>517689.8556705833</v>
       </c>
       <c r="AE15" t="n">
-        <v>608323.3912963213</v>
+        <v>708326.0993930389</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250264555983826e-06</v>
+        <v>2.313316765871265e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>550265.8606182416</v>
+        <v>640724.4506088909</v>
       </c>
     </row>
     <row r="16">
@@ -7761,28 +7761,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>441.2733513680423</v>
+        <v>514.3617037040909</v>
       </c>
       <c r="AB16" t="n">
-        <v>603.7696669480642</v>
+        <v>703.7723750447817</v>
       </c>
       <c r="AC16" t="n">
-        <v>546.1467373305899</v>
+        <v>636.6053273212391</v>
       </c>
       <c r="AD16" t="n">
-        <v>441273.3513680423</v>
+        <v>514361.7037040909</v>
       </c>
       <c r="AE16" t="n">
-        <v>603769.6669480642</v>
+        <v>703772.3750447817</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.255142931239606e-06</v>
+        <v>2.322343037323492e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH16" t="n">
-        <v>546146.7373305899</v>
+        <v>636605.327321239</v>
       </c>
     </row>
     <row r="17">
@@ -7867,28 +7867,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>437.8219976392062</v>
+        <v>510.9103499752547</v>
       </c>
       <c r="AB17" t="n">
-        <v>599.0473725132903</v>
+        <v>699.0500806100079</v>
       </c>
       <c r="AC17" t="n">
-        <v>541.875132048889</v>
+        <v>632.3337220395381</v>
       </c>
       <c r="AD17" t="n">
-        <v>437821.9976392062</v>
+        <v>510910.3499752547</v>
       </c>
       <c r="AE17" t="n">
-        <v>599047.3725132903</v>
+        <v>699050.0806100079</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.258690840516537e-06</v>
+        <v>2.328907598379658e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH17" t="n">
-        <v>541875.1320488889</v>
+        <v>632333.7220395381</v>
       </c>
     </row>
     <row r="18">
@@ -7973,28 +7973,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>436.9154769115468</v>
+        <v>510.0038292475953</v>
       </c>
       <c r="AB18" t="n">
-        <v>597.8070308608346</v>
+        <v>697.8097389575522</v>
       </c>
       <c r="AC18" t="n">
-        <v>540.7531668629133</v>
+        <v>631.2117568535625</v>
       </c>
       <c r="AD18" t="n">
-        <v>436915.4769115468</v>
+        <v>510003.8292475953</v>
       </c>
       <c r="AE18" t="n">
-        <v>597807.0308608346</v>
+        <v>697809.7389575522</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.258970938617348e-06</v>
+        <v>2.329425853199881e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH18" t="n">
-        <v>540753.1668629133</v>
+        <v>631211.7568535625</v>
       </c>
     </row>
     <row r="19">
@@ -8079,28 +8079,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>433.7886678152569</v>
+        <v>506.8770201513054</v>
       </c>
       <c r="AB19" t="n">
-        <v>593.5287927102091</v>
+        <v>693.5315008069267</v>
       </c>
       <c r="AC19" t="n">
-        <v>536.8832377568384</v>
+        <v>627.3418277474877</v>
       </c>
       <c r="AD19" t="n">
-        <v>433788.6678152569</v>
+        <v>506877.0201513054</v>
       </c>
       <c r="AE19" t="n">
-        <v>593528.7927102091</v>
+        <v>693531.5008069267</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.262518847894279e-06</v>
+        <v>2.335990414256046e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>536883.2377568384</v>
+        <v>627341.8277474877</v>
       </c>
     </row>
     <row r="20">
@@ -8185,28 +8185,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>432.7122385446086</v>
+        <v>505.8005908806571</v>
       </c>
       <c r="AB20" t="n">
-        <v>592.0559746934003</v>
+        <v>692.058682790118</v>
       </c>
       <c r="AC20" t="n">
-        <v>535.5509834244408</v>
+        <v>626.0095734150901</v>
       </c>
       <c r="AD20" t="n">
-        <v>432712.2385446086</v>
+        <v>505800.5908806571</v>
       </c>
       <c r="AE20" t="n">
-        <v>592055.9746934003</v>
+        <v>692058.682790118</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.262798945995089e-06</v>
+        <v>2.33650866907627e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH20" t="n">
-        <v>535550.9834244408</v>
+        <v>626009.5734150901</v>
       </c>
     </row>
     <row r="21">
@@ -8291,28 +8291,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>416.8538575227765</v>
+        <v>502.0523801093805</v>
       </c>
       <c r="AB21" t="n">
-        <v>570.3578381569358</v>
+        <v>686.9302154534685</v>
       </c>
       <c r="AC21" t="n">
-        <v>515.9236865854906</v>
+        <v>621.3705598032013</v>
       </c>
       <c r="AD21" t="n">
-        <v>416853.8575227765</v>
+        <v>502052.3801093805</v>
       </c>
       <c r="AE21" t="n">
-        <v>570357.8381569359</v>
+        <v>686930.2154534685</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266930392982042e-06</v>
+        <v>2.344152927674568e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH21" t="n">
-        <v>515923.6865854906</v>
+        <v>621370.5598032014</v>
       </c>
     </row>
     <row r="22">
@@ -8397,28 +8397,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>415.2086891776433</v>
+        <v>500.4072117642473</v>
       </c>
       <c r="AB22" t="n">
-        <v>568.1068462474196</v>
+        <v>684.6792235439525</v>
       </c>
       <c r="AC22" t="n">
-        <v>513.8875261845317</v>
+        <v>619.3343994022424</v>
       </c>
       <c r="AD22" t="n">
-        <v>415208.6891776433</v>
+        <v>500407.2117642473</v>
       </c>
       <c r="AE22" t="n">
-        <v>568106.8462474196</v>
+        <v>684679.2235439525</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267280515608055e-06</v>
+        <v>2.344800746199847e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH22" t="n">
-        <v>513887.5261845316</v>
+        <v>619334.3994022424</v>
       </c>
     </row>
     <row r="23">
@@ -8503,28 +8503,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>412.3162605159706</v>
+        <v>497.5147831025745</v>
       </c>
       <c r="AB23" t="n">
-        <v>564.1492977475724</v>
+        <v>680.7216750441052</v>
       </c>
       <c r="AC23" t="n">
-        <v>510.3076805590557</v>
+        <v>615.7545537767664</v>
       </c>
       <c r="AD23" t="n">
-        <v>412316.2605159706</v>
+        <v>497514.7831025745</v>
       </c>
       <c r="AE23" t="n">
-        <v>564149.2977475724</v>
+        <v>680721.6750441052</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.266813685440038e-06</v>
+        <v>2.343936988166141e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.99869791666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>510307.6805590556</v>
+        <v>615754.5537767664</v>
       </c>
     </row>
     <row r="24">
@@ -8609,28 +8609,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>410.7366989207925</v>
+        <v>495.9352215073964</v>
       </c>
       <c r="AB24" t="n">
-        <v>561.9880718877104</v>
+        <v>678.560449184243</v>
       </c>
       <c r="AC24" t="n">
-        <v>508.3527190619592</v>
+        <v>613.7995922796699</v>
       </c>
       <c r="AD24" t="n">
-        <v>410736.6989207925</v>
+        <v>495935.2215073964</v>
       </c>
       <c r="AE24" t="n">
-        <v>561988.0718877104</v>
+        <v>678560.449184243</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.270198204158163e-06</v>
+        <v>2.350199233910509e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>508352.7190619592</v>
+        <v>613799.5922796699</v>
       </c>
     </row>
     <row r="25">
@@ -8715,28 +8715,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>410.4171222944917</v>
+        <v>495.6156448810957</v>
       </c>
       <c r="AB25" t="n">
-        <v>561.5508130488798</v>
+        <v>678.1231903454125</v>
       </c>
       <c r="AC25" t="n">
-        <v>507.9571915930101</v>
+        <v>613.4040648107207</v>
       </c>
       <c r="AD25" t="n">
-        <v>410417.1222944917</v>
+        <v>495615.6448810957</v>
       </c>
       <c r="AE25" t="n">
-        <v>561550.8130488798</v>
+        <v>678123.1903454125</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.270548326784176e-06</v>
+        <v>2.350847052435789e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>507957.1915930101</v>
+        <v>613404.0648107207</v>
       </c>
     </row>
     <row r="26">
@@ -8821,28 +8821,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>411.2786832925839</v>
+        <v>496.4772058791879</v>
       </c>
       <c r="AB26" t="n">
-        <v>562.7296388158583</v>
+        <v>679.3020161123909</v>
       </c>
       <c r="AC26" t="n">
-        <v>509.0235118832805</v>
+        <v>614.4703851009913</v>
       </c>
       <c r="AD26" t="n">
-        <v>411278.6832925839</v>
+        <v>496477.2058791879</v>
       </c>
       <c r="AE26" t="n">
-        <v>562729.6388158583</v>
+        <v>679302.0161123909</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.270781741868184e-06</v>
+        <v>2.351278931452642e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>509023.5118832805</v>
+        <v>614470.3851009912</v>
       </c>
     </row>
   </sheetData>
@@ -9118,28 +9118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.9275775199023</v>
+        <v>787.6303945137653</v>
       </c>
       <c r="AB2" t="n">
-        <v>933.0433960841924</v>
+        <v>1077.670653574364</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.9950438965474</v>
+        <v>974.8192789174875</v>
       </c>
       <c r="AD2" t="n">
-        <v>681927.5775199024</v>
+        <v>787630.3945137652</v>
       </c>
       <c r="AE2" t="n">
-        <v>933043.3960841924</v>
+        <v>1077670.653574364</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.007596883454718e-07</v>
+        <v>1.716986982389758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>843995.0438965474</v>
+        <v>974819.2789174875</v>
       </c>
     </row>
     <row r="3">
@@ -9224,28 +9224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.9065654464908</v>
+        <v>600.1672990294909</v>
       </c>
       <c r="AB3" t="n">
-        <v>708.6226112689963</v>
+        <v>821.1753760446943</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.9926638075638</v>
+        <v>742.8035506818669</v>
       </c>
       <c r="AD3" t="n">
-        <v>517906.5654464909</v>
+        <v>600167.2990294909</v>
       </c>
       <c r="AE3" t="n">
-        <v>708622.6112689963</v>
+        <v>821175.3760446943</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107236100929702e-06</v>
+        <v>2.110562890775315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>640992.6638075637</v>
+        <v>742803.5506818669</v>
       </c>
     </row>
     <row r="4">
@@ -9330,28 +9330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.1462902986391</v>
+        <v>554.3216830270676</v>
       </c>
       <c r="AB4" t="n">
-        <v>646.0113840108457</v>
+        <v>758.4473816643462</v>
       </c>
       <c r="AC4" t="n">
-        <v>584.3569642035219</v>
+        <v>686.0622280458862</v>
       </c>
       <c r="AD4" t="n">
-        <v>472146.2902986391</v>
+        <v>554321.6830270676</v>
       </c>
       <c r="AE4" t="n">
-        <v>646011.3840108458</v>
+        <v>758447.3816643462</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183394047987434e-06</v>
+        <v>2.255731691505995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>584356.9642035218</v>
+        <v>686062.2280458861</v>
       </c>
     </row>
     <row r="5">
@@ -9436,28 +9436,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.8123025223629</v>
+        <v>525.0729465968119</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.8753278111387</v>
+        <v>718.4279701172885</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.0514368762061</v>
+        <v>649.8622129692826</v>
       </c>
       <c r="AD5" t="n">
-        <v>442812.3025223629</v>
+        <v>525072.9465968119</v>
       </c>
       <c r="AE5" t="n">
-        <v>605875.3278111387</v>
+        <v>718427.9701172885</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225022551705737e-06</v>
+        <v>2.335082044219911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.83203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>548051.4368762062</v>
+        <v>649862.2129692826</v>
       </c>
     </row>
     <row r="6">
@@ -9542,28 +9542,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>430.8044713574032</v>
+        <v>501.4720850082783</v>
       </c>
       <c r="AB6" t="n">
-        <v>589.4456834631177</v>
+        <v>686.1362300953276</v>
       </c>
       <c r="AC6" t="n">
-        <v>533.1898147256096</v>
+        <v>620.652351293276</v>
       </c>
       <c r="AD6" t="n">
-        <v>430804.4713574032</v>
+        <v>501472.0850082783</v>
       </c>
       <c r="AE6" t="n">
-        <v>589445.6834631177</v>
+        <v>686136.2300953276</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253756843715471e-06</v>
+        <v>2.389854039422673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>533189.8147256096</v>
+        <v>620652.3512932759</v>
       </c>
     </row>
     <row r="7">
@@ -9648,28 +9648,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>423.621468086419</v>
+        <v>494.1184895367019</v>
       </c>
       <c r="AB7" t="n">
-        <v>579.617581496018</v>
+        <v>676.0747163533808</v>
       </c>
       <c r="AC7" t="n">
-        <v>524.2996930164221</v>
+        <v>611.5510943014373</v>
       </c>
       <c r="AD7" t="n">
-        <v>423621.468086419</v>
+        <v>494118.4895367019</v>
       </c>
       <c r="AE7" t="n">
-        <v>579617.581496018</v>
+        <v>676074.7163533808</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.269814242191499e-06</v>
+        <v>2.420461919094805e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>524299.6930164221</v>
+        <v>611551.0943014373</v>
       </c>
     </row>
     <row r="8">
@@ -9754,28 +9754,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>418.0356629382778</v>
+        <v>488.5326843885606</v>
       </c>
       <c r="AB8" t="n">
-        <v>571.974836464</v>
+        <v>668.4319713213628</v>
       </c>
       <c r="AC8" t="n">
-        <v>517.3863608435998</v>
+        <v>604.637762128615</v>
       </c>
       <c r="AD8" t="n">
-        <v>418035.6629382778</v>
+        <v>488532.6843885606</v>
       </c>
       <c r="AE8" t="n">
-        <v>571974.8364639999</v>
+        <v>668431.9713213628</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280462832759812e-06</v>
+        <v>2.440759776140534e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.27864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>517386.3608435999</v>
+        <v>604637.7621286151</v>
       </c>
     </row>
     <row r="9">
@@ -9860,28 +9860,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>412.7894656110103</v>
+        <v>483.2864870612932</v>
       </c>
       <c r="AB9" t="n">
-        <v>564.7967578349412</v>
+        <v>661.253892692304</v>
       </c>
       <c r="AC9" t="n">
-        <v>510.8933479644019</v>
+        <v>598.1447492494171</v>
       </c>
       <c r="AD9" t="n">
-        <v>412789.4656110103</v>
+        <v>483286.4870612932</v>
       </c>
       <c r="AE9" t="n">
-        <v>564796.7578349413</v>
+        <v>661253.892692304</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>2.462162278467663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>510893.3479644019</v>
+        <v>598144.7492494171</v>
       </c>
     </row>
     <row r="10">
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.2013782649378</v>
+        <v>479.6983997152207</v>
       </c>
       <c r="AB10" t="n">
-        <v>559.8873784328028</v>
+        <v>656.3445132901657</v>
       </c>
       <c r="AC10" t="n">
-        <v>506.4525128420463</v>
+        <v>593.7039141270616</v>
       </c>
       <c r="AD10" t="n">
-        <v>409201.3782649378</v>
+        <v>479698.3997152207</v>
       </c>
       <c r="AE10" t="n">
-        <v>559887.3784328029</v>
+        <v>656344.5132901657</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296785842338451e-06</v>
+        <v>2.47187395156664e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>506452.5128420463</v>
+        <v>593703.9141270616</v>
       </c>
     </row>
     <row r="11">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>404.2519701220312</v>
+        <v>474.748991572314</v>
       </c>
       <c r="AB11" t="n">
-        <v>553.1153798592013</v>
+        <v>649.5725147165642</v>
       </c>
       <c r="AC11" t="n">
-        <v>500.3268243077496</v>
+        <v>587.5782255927647</v>
       </c>
       <c r="AD11" t="n">
-        <v>404251.9701220312</v>
+        <v>474748.9915723139</v>
       </c>
       <c r="AE11" t="n">
-        <v>553115.3798592013</v>
+        <v>649572.5147165642</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305840766291098e-06</v>
+        <v>2.489134034088519e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>500326.8243077496</v>
+        <v>587578.2255927648</v>
       </c>
     </row>
     <row r="12">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>400.9550749504285</v>
+        <v>471.4520964007114</v>
       </c>
       <c r="AB12" t="n">
-        <v>548.6044224366649</v>
+        <v>645.0615572940278</v>
       </c>
       <c r="AC12" t="n">
-        <v>496.2463863304516</v>
+        <v>583.4977876154668</v>
       </c>
       <c r="AD12" t="n">
-        <v>400955.0749504285</v>
+        <v>471452.0964007113</v>
       </c>
       <c r="AE12" t="n">
-        <v>548604.4224366649</v>
+        <v>645061.5572940278</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.309728346974768e-06</v>
+        <v>2.496544362851245e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>496246.3863304516</v>
+        <v>583497.7876154667</v>
       </c>
     </row>
     <row r="13">
@@ -10284,28 +10284,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>385.9827543990632</v>
+        <v>468.1580576189406</v>
       </c>
       <c r="AB13" t="n">
-        <v>528.118632926122</v>
+        <v>640.5545081100744</v>
       </c>
       <c r="AC13" t="n">
-        <v>477.7157318188089</v>
+        <v>579.4208848799466</v>
       </c>
       <c r="AD13" t="n">
-        <v>385982.7543990632</v>
+        <v>468158.0576189406</v>
       </c>
       <c r="AE13" t="n">
-        <v>528118.6329261221</v>
+        <v>640554.5081100743</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.312456897392499e-06</v>
+        <v>2.501745401051171e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>477715.7318188089</v>
+        <v>579420.8848799466</v>
       </c>
     </row>
     <row r="14">
@@ -10390,28 +10390,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>382.2035749914845</v>
+        <v>464.378878211362</v>
       </c>
       <c r="AB14" t="n">
-        <v>522.9477929350446</v>
+        <v>635.3836681189966</v>
       </c>
       <c r="AC14" t="n">
-        <v>473.0383895391602</v>
+        <v>574.7435426002979</v>
       </c>
       <c r="AD14" t="n">
-        <v>382203.5749914845</v>
+        <v>464378.8782113619</v>
       </c>
       <c r="AE14" t="n">
-        <v>522947.7929350446</v>
+        <v>635383.6681189967</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.317310336631118e-06</v>
+        <v>2.510996805282898e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.93359375</v>
       </c>
       <c r="AH14" t="n">
-        <v>473038.3895391602</v>
+        <v>574743.542600298</v>
       </c>
     </row>
     <row r="15">
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>379.085626029058</v>
+        <v>461.2609292489354</v>
       </c>
       <c r="AB15" t="n">
-        <v>518.6816776104524</v>
+        <v>631.1175527944046</v>
       </c>
       <c r="AC15" t="n">
-        <v>469.1794262736167</v>
+        <v>570.8845793347544</v>
       </c>
       <c r="AD15" t="n">
-        <v>379085.626029058</v>
+        <v>461260.9292489354</v>
       </c>
       <c r="AE15" t="n">
-        <v>518681.6776104525</v>
+        <v>631117.5527944046</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.320932306212177e-06</v>
+        <v>2.51790083829165e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>469179.4262736167</v>
+        <v>570884.5793347545</v>
       </c>
     </row>
     <row r="16">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>375.2290518579968</v>
+        <v>445.8113246543002</v>
       </c>
       <c r="AB16" t="n">
-        <v>513.4049426895619</v>
+        <v>609.978722199574</v>
       </c>
       <c r="AC16" t="n">
-        <v>464.406295527632</v>
+        <v>551.7632090633595</v>
       </c>
       <c r="AD16" t="n">
-        <v>375229.0518579967</v>
+        <v>445811.3246543002</v>
       </c>
       <c r="AE16" t="n">
-        <v>513404.9426895619</v>
+        <v>609978.722199574</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.323902321268645e-06</v>
+        <v>2.523562145358826e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH16" t="n">
-        <v>464406.295527632</v>
+        <v>551763.2090633594</v>
       </c>
     </row>
     <row r="17">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>373.3743429073699</v>
+        <v>443.9566157036733</v>
       </c>
       <c r="AB17" t="n">
-        <v>510.86724807933</v>
+        <v>607.4410275893421</v>
       </c>
       <c r="AC17" t="n">
-        <v>462.1107949293239</v>
+        <v>549.4677084650514</v>
       </c>
       <c r="AD17" t="n">
-        <v>373374.3429073698</v>
+        <v>443956.6157036733</v>
       </c>
       <c r="AE17" t="n">
-        <v>510867.24807933</v>
+        <v>607441.0275893421</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.323685003093782e-06</v>
+        <v>2.523147903378301e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH17" t="n">
-        <v>462110.7949293239</v>
+        <v>549467.7084650514</v>
       </c>
     </row>
     <row r="18">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>370.4809949792343</v>
+        <v>441.0632677755377</v>
       </c>
       <c r="AB18" t="n">
-        <v>506.9084417985531</v>
+        <v>603.4822213085653</v>
       </c>
       <c r="AC18" t="n">
-        <v>458.5298115637648</v>
+        <v>545.8867250994923</v>
       </c>
       <c r="AD18" t="n">
-        <v>370480.9949792343</v>
+        <v>441063.2677755377</v>
       </c>
       <c r="AE18" t="n">
-        <v>506908.4417985531</v>
+        <v>603482.2213085652</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.328055513054926e-06</v>
+        <v>2.531478769875527e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH18" t="n">
-        <v>458529.8115637648</v>
+        <v>545886.7250994924</v>
       </c>
     </row>
   </sheetData>
@@ -11111,28 +11111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.0990324413178</v>
+        <v>443.343129879654</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.385823803178</v>
+        <v>606.6016292198345</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.0570714963692</v>
+        <v>548.7084210978265</v>
       </c>
       <c r="AD2" t="n">
-        <v>370099.0324413178</v>
+        <v>443343.129879654</v>
       </c>
       <c r="AE2" t="n">
-        <v>506385.823803178</v>
+        <v>606601.6292198346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276953962775258e-06</v>
+        <v>2.719577758112315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>458057.0714963693</v>
+        <v>548708.4210978266</v>
       </c>
     </row>
     <row r="3">
@@ -11217,28 +11217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.7675096926407</v>
+        <v>383.4629132937655</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.8882580252537</v>
+        <v>524.6708751583101</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.0013786628616</v>
+        <v>474.5970232133984</v>
       </c>
       <c r="AD3" t="n">
-        <v>320767.5096926407</v>
+        <v>383462.9132937655</v>
       </c>
       <c r="AE3" t="n">
-        <v>438888.2580252537</v>
+        <v>524670.8751583101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413667494459719e-06</v>
+        <v>3.01074180226782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>397001.3786628615</v>
+        <v>474597.0232133984</v>
       </c>
     </row>
     <row r="4">
@@ -11323,28 +11323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.3043154726946</v>
+        <v>368.3777312018876</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.048392336677</v>
+        <v>504.0306635089383</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.486580857544</v>
+        <v>455.9266843951237</v>
       </c>
       <c r="AD4" t="n">
-        <v>295304.3154726946</v>
+        <v>368377.7312018876</v>
       </c>
       <c r="AE4" t="n">
-        <v>404048.392336677</v>
+        <v>504030.6635089383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.463379056532606e-06</v>
+        <v>3.116614419821409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>365486.580857544</v>
+        <v>455926.6843951237</v>
       </c>
     </row>
     <row r="5">
@@ -11429,28 +11429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.6551613658316</v>
+        <v>348.4358163129769</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.8459939970315</v>
+        <v>476.7452557827373</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.5442008857519</v>
+        <v>431.245357687001</v>
       </c>
       <c r="AD5" t="n">
-        <v>285655.1613658316</v>
+        <v>348435.8163129769</v>
       </c>
       <c r="AE5" t="n">
-        <v>390845.9939970315</v>
+        <v>476745.2557827373</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486766393052534e-06</v>
+        <v>3.166423326074262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>353544.2008857519</v>
+        <v>431245.357687001</v>
       </c>
     </row>
     <row r="6">
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.6800752282039</v>
+        <v>342.4607301753492</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.6706175413329</v>
+        <v>468.5698793270388</v>
       </c>
       <c r="AC6" t="n">
-        <v>346.1490708847724</v>
+        <v>423.8502276860214</v>
       </c>
       <c r="AD6" t="n">
-        <v>279680.0752282038</v>
+        <v>342460.7301753492</v>
       </c>
       <c r="AE6" t="n">
-        <v>382670.617541333</v>
+        <v>468569.8793270388</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498756444609409e-06</v>
+        <v>3.191958998058732e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>346149.0708847723</v>
+        <v>423850.2276860214</v>
       </c>
     </row>
   </sheetData>
@@ -11832,28 +11832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.2826375339919</v>
+        <v>551.9716650490232</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.2519873783799</v>
+        <v>755.2319833913097</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.6244292847506</v>
+        <v>683.1537028711884</v>
       </c>
       <c r="AD2" t="n">
-        <v>464282.6375339919</v>
+        <v>551971.6650490231</v>
       </c>
       <c r="AE2" t="n">
-        <v>635251.9873783799</v>
+        <v>755231.9833913096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12784676071073e-06</v>
+        <v>2.28991885657813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.87630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>574624.4292847506</v>
+        <v>683153.7028711884</v>
       </c>
     </row>
     <row r="3">
@@ -11938,28 +11938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.5861218017556</v>
+        <v>457.3033532705865</v>
       </c>
       <c r="AB3" t="n">
-        <v>520.7347221238589</v>
+        <v>625.7026227448977</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.0365311001297</v>
+        <v>565.9864426092703</v>
       </c>
       <c r="AD3" t="n">
-        <v>380586.1218017556</v>
+        <v>457303.3532705865</v>
       </c>
       <c r="AE3" t="n">
-        <v>520734.7221238589</v>
+        <v>625702.6227448976</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293125093008232e-06</v>
+        <v>2.62549101309462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.97526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>471036.5311001297</v>
+        <v>565986.4426092703</v>
       </c>
     </row>
     <row r="4">
@@ -12044,28 +12044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.9676854939165</v>
+        <v>426.7132104250979</v>
       </c>
       <c r="AB4" t="n">
-        <v>493.8919120631475</v>
+        <v>583.8478397618439</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.7555611574922</v>
+        <v>528.1262213705623</v>
       </c>
       <c r="AD4" t="n">
-        <v>360967.6854939165</v>
+        <v>426713.210425098</v>
       </c>
       <c r="AE4" t="n">
-        <v>493891.9120631475</v>
+        <v>583847.8397618439</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353184125174979e-06</v>
+        <v>2.74743161270214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>446755.5611574922</v>
+        <v>528126.2213705623</v>
       </c>
     </row>
     <row r="5">
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.6953942342657</v>
+        <v>415.4409191654471</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.4686658633005</v>
+        <v>568.4245935619969</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.8042879282966</v>
+        <v>514.1749481413667</v>
       </c>
       <c r="AD5" t="n">
-        <v>349695.3942342657</v>
+        <v>415440.9191654471</v>
       </c>
       <c r="AE5" t="n">
-        <v>478468.6658633006</v>
+        <v>568424.5935619968</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385043766272875e-06</v>
+        <v>2.812117699017545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>432804.2879282966</v>
+        <v>514174.9481413667</v>
       </c>
     </row>
     <row r="6">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.9108432734333</v>
+        <v>407.5427338876926</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.7668145227893</v>
+        <v>557.6179480216304</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.5553852069488</v>
+        <v>504.3996736841506</v>
       </c>
       <c r="AD6" t="n">
-        <v>330910.8432734333</v>
+        <v>407542.7338876926</v>
       </c>
       <c r="AE6" t="n">
-        <v>452766.8145227893</v>
+        <v>557617.9480216304</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.402803711836347e-06</v>
+        <v>2.848176528686893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>409555.3852069487</v>
+        <v>504399.6736841506</v>
       </c>
     </row>
     <row r="7">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.6734532793199</v>
+        <v>390.504229556522</v>
       </c>
       <c r="AB7" t="n">
-        <v>444.2325423586175</v>
+        <v>534.305114709963</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.8356120001994</v>
+        <v>483.3117844639817</v>
       </c>
       <c r="AD7" t="n">
-        <v>324673.4532793199</v>
+        <v>390504.229556522</v>
       </c>
       <c r="AE7" t="n">
-        <v>444232.5423586175</v>
+        <v>534305.1147099631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413526697836933e-06</v>
+        <v>2.869947897543858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>401835.6120001994</v>
+        <v>483311.7844639817</v>
       </c>
     </row>
     <row r="8">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.3014113819475</v>
+        <v>385.1321876591495</v>
       </c>
       <c r="AB8" t="n">
-        <v>436.8822776368705</v>
+        <v>526.9548499882161</v>
       </c>
       <c r="AC8" t="n">
-        <v>395.1868462273346</v>
+        <v>476.6630186911171</v>
       </c>
       <c r="AD8" t="n">
-        <v>319301.4113819475</v>
+        <v>385132.1876591495</v>
       </c>
       <c r="AE8" t="n">
-        <v>436882.2776368705</v>
+        <v>526954.8499882161</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422161794736444e-06</v>
+        <v>2.88748012967627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>395186.8462273346</v>
+        <v>476663.0186911171</v>
       </c>
     </row>
     <row r="9">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.561817292876</v>
+        <v>379.3925935700781</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.0291117911827</v>
+        <v>519.1016841425283</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.0831755079716</v>
+        <v>469.5593479717541</v>
       </c>
       <c r="AD9" t="n">
-        <v>313561.817292876</v>
+        <v>379392.5935700781</v>
       </c>
       <c r="AE9" t="n">
-        <v>429029.1117911827</v>
+        <v>519101.6841425282</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.429508071203192e-06</v>
+        <v>2.902395610744142e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>388083.1755079716</v>
+        <v>469559.347971754</v>
       </c>
     </row>
     <row r="10">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>312.6590158191535</v>
+        <v>378.4897920963556</v>
       </c>
       <c r="AB10" t="n">
-        <v>427.7938589860454</v>
+        <v>517.8664313373911</v>
       </c>
       <c r="AC10" t="n">
-        <v>386.9658134968686</v>
+        <v>468.441985960651</v>
       </c>
       <c r="AD10" t="n">
-        <v>312659.0158191535</v>
+        <v>378489.7920963556</v>
       </c>
       <c r="AE10" t="n">
-        <v>427793.8589860455</v>
+        <v>517866.431337391</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.433219874049549e-06</v>
+        <v>2.909931853810015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>386965.8134968686</v>
+        <v>468441.985960651</v>
       </c>
     </row>
   </sheetData>
@@ -12977,28 +12977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.6181770622491</v>
+        <v>372.8971963527611</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.73798159717</v>
+        <v>510.2143951130939</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.915268967563</v>
+        <v>461.5202493339006</v>
       </c>
       <c r="AD2" t="n">
-        <v>312618.1770622491</v>
+        <v>372897.1963527611</v>
       </c>
       <c r="AE2" t="n">
-        <v>427737.98159717</v>
+        <v>510214.3951130939</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400940200897243e-06</v>
+        <v>3.119620190096779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>386915.268967563</v>
+        <v>461520.2493339006</v>
       </c>
     </row>
     <row r="3">
@@ -13083,28 +13083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.0324510468587</v>
+        <v>335.2261294827991</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.3115330977086</v>
+        <v>458.6711794914348</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.3968885354163</v>
+        <v>414.8962458698151</v>
       </c>
       <c r="AD3" t="n">
-        <v>275032.4510468587</v>
+        <v>335226.1294827991</v>
       </c>
       <c r="AE3" t="n">
-        <v>376311.5330977086</v>
+        <v>458671.1794914348</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.514637343222823e-06</v>
+        <v>3.372801518270545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>340396.8885354163</v>
+        <v>414896.2458698151</v>
       </c>
     </row>
     <row r="4">
@@ -13189,28 +13189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.7239358467503</v>
+        <v>314.0028656287145</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.1562825354121</v>
+        <v>429.6325735819561</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.0241741672386</v>
+        <v>388.6290437523976</v>
       </c>
       <c r="AD4" t="n">
-        <v>253723.9358467503</v>
+        <v>314002.8656287144</v>
       </c>
       <c r="AE4" t="n">
-        <v>347156.2825354121</v>
+        <v>429632.5735819561</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547378090582146e-06</v>
+        <v>3.445708767584673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>314024.1741672386</v>
+        <v>388629.0437523976</v>
       </c>
     </row>
     <row r="5">
@@ -13295,28 +13295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.4131238568939</v>
+        <v>314.6920536388579</v>
       </c>
       <c r="AB5" t="n">
-        <v>348.0992599757192</v>
+        <v>430.5755510222636</v>
       </c>
       <c r="AC5" t="n">
-        <v>314.8771551641203</v>
+        <v>389.4820247492793</v>
       </c>
       <c r="AD5" t="n">
-        <v>254413.1238568939</v>
+        <v>314692.053638858</v>
       </c>
       <c r="AE5" t="n">
-        <v>348099.2599757192</v>
+        <v>430575.5510222636</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.551183852668357e-06</v>
+        <v>3.454183456393836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>314877.1551641203</v>
+        <v>389482.0247492793</v>
       </c>
     </row>
   </sheetData>
@@ -13592,28 +13592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.1550625795676</v>
+        <v>836.7566841463425</v>
       </c>
       <c r="AB2" t="n">
-        <v>982.6114393866686</v>
+        <v>1144.887410348594</v>
       </c>
       <c r="AC2" t="n">
-        <v>888.832382715421</v>
+        <v>1035.620962764496</v>
       </c>
       <c r="AD2" t="n">
-        <v>718155.0625795675</v>
+        <v>836756.6841463426</v>
       </c>
       <c r="AE2" t="n">
-        <v>982611.4393866686</v>
+        <v>1144887.410348594</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.671593199501444e-07</v>
+        <v>1.639593337069412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>888832.382715421</v>
+        <v>1035620.962764496</v>
       </c>
     </row>
     <row r="3">
@@ -13698,28 +13698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.9049121282608</v>
+        <v>621.960273075383</v>
       </c>
       <c r="AB3" t="n">
-        <v>737.3534755806685</v>
+        <v>850.9934845724441</v>
       </c>
       <c r="AC3" t="n">
-        <v>666.9814947533515</v>
+        <v>769.7758607817063</v>
       </c>
       <c r="AD3" t="n">
-        <v>538904.9121282608</v>
+        <v>621960.273075383</v>
       </c>
       <c r="AE3" t="n">
-        <v>737353.4755806685</v>
+        <v>850993.4845724441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078816259763573e-06</v>
+        <v>2.039786589080532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.44010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>666981.4947533516</v>
+        <v>769775.8607817063</v>
       </c>
     </row>
     <row r="4">
@@ -13804,28 +13804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>487.9908535516946</v>
+        <v>570.9608736442452</v>
       </c>
       <c r="AB4" t="n">
-        <v>667.6906144664731</v>
+        <v>781.2138563360509</v>
       </c>
       <c r="AC4" t="n">
-        <v>603.9671593314552</v>
+        <v>706.6559023278711</v>
       </c>
       <c r="AD4" t="n">
-        <v>487990.8535516945</v>
+        <v>570960.8736442452</v>
       </c>
       <c r="AE4" t="n">
-        <v>667690.6144664731</v>
+        <v>781213.8563360509</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160272474927498e-06</v>
+        <v>2.193801041296004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.42447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>603967.1593314551</v>
+        <v>706655.9023278711</v>
       </c>
     </row>
     <row r="5">
@@ -13910,28 +13910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>456.9984066244073</v>
+        <v>540.0536780629785</v>
       </c>
       <c r="AB5" t="n">
-        <v>625.2853812902987</v>
+        <v>738.9252678125257</v>
       </c>
       <c r="AC5" t="n">
-        <v>565.6090220934963</v>
+        <v>668.4032773406245</v>
       </c>
       <c r="AD5" t="n">
-        <v>456998.4066244073</v>
+        <v>540053.6780629785</v>
       </c>
       <c r="AE5" t="n">
-        <v>625285.3812902987</v>
+        <v>738925.2678125257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.204374650176356e-06</v>
+        <v>2.277187831963782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>565609.0220934963</v>
+        <v>668403.2773406245</v>
       </c>
     </row>
     <row r="6">
@@ -14016,28 +14016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>445.6098917929246</v>
+        <v>528.6651632314959</v>
       </c>
       <c r="AB6" t="n">
-        <v>609.7031128720492</v>
+        <v>723.3429993942763</v>
       </c>
       <c r="AC6" t="n">
-        <v>551.5139035032335</v>
+        <v>654.3081587503616</v>
       </c>
       <c r="AD6" t="n">
-        <v>445609.8917929246</v>
+        <v>528665.1632314959</v>
       </c>
       <c r="AE6" t="n">
-        <v>609703.1128720492</v>
+        <v>723342.9993942763</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230864670795176e-06</v>
+        <v>2.327274200530917e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH6" t="n">
-        <v>551513.9035032335</v>
+        <v>654308.1587503616</v>
       </c>
     </row>
     <row r="7">
@@ -14122,28 +14122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.8628333384971</v>
+        <v>509.0409639580275</v>
       </c>
       <c r="AB7" t="n">
-        <v>599.1032457186038</v>
+        <v>696.4923041897472</v>
       </c>
       <c r="AC7" t="n">
-        <v>541.925672793906</v>
+        <v>630.0200562109654</v>
       </c>
       <c r="AD7" t="n">
-        <v>437862.8333384971</v>
+        <v>509040.9639580275</v>
       </c>
       <c r="AE7" t="n">
-        <v>599103.2457186038</v>
+        <v>696492.3041897472</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.248333248077686e-06</v>
+        <v>2.360303151799217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.48046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>541925.6727939059</v>
+        <v>630020.0562109654</v>
       </c>
     </row>
     <row r="8">
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>431.0537204516495</v>
+        <v>502.23185107118</v>
       </c>
       <c r="AB8" t="n">
-        <v>589.7867170699594</v>
+        <v>687.1757755411028</v>
       </c>
       <c r="AC8" t="n">
-        <v>533.4983005636578</v>
+        <v>621.5926839807174</v>
       </c>
       <c r="AD8" t="n">
-        <v>431053.7204516495</v>
+        <v>502231.85107118</v>
       </c>
       <c r="AE8" t="n">
-        <v>589786.7170699594</v>
+        <v>687175.7755411027</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262547405482907e-06</v>
+        <v>2.387178764201094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>533498.3005636579</v>
+        <v>621592.6839807174</v>
       </c>
     </row>
     <row r="9">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>426.4217886750961</v>
+        <v>497.5999192946265</v>
       </c>
       <c r="AB9" t="n">
-        <v>583.4491036668711</v>
+        <v>680.8381621380144</v>
       </c>
       <c r="AC9" t="n">
-        <v>527.7655400888641</v>
+        <v>615.8599235059236</v>
       </c>
       <c r="AD9" t="n">
-        <v>426421.7886750961</v>
+        <v>497599.9192946266</v>
       </c>
       <c r="AE9" t="n">
-        <v>583449.1036668711</v>
+        <v>680838.1621380143</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.270659525618209e-06</v>
+        <v>2.402516866228428e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>527765.540088864</v>
+        <v>615859.9235059236</v>
       </c>
     </row>
     <row r="10">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>422.4346754542993</v>
+        <v>493.6128060738299</v>
       </c>
       <c r="AB10" t="n">
-        <v>577.993759459156</v>
+        <v>675.3828179302993</v>
       </c>
       <c r="AC10" t="n">
-        <v>522.8308462757097</v>
+        <v>610.9252296927692</v>
       </c>
       <c r="AD10" t="n">
-        <v>422434.6754542993</v>
+        <v>493612.8060738299</v>
       </c>
       <c r="AE10" t="n">
-        <v>577993.759459156</v>
+        <v>675382.8179302993</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.277120506256946e-06</v>
+        <v>2.414733053683827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>522830.8462757098</v>
+        <v>610925.2296927692</v>
       </c>
     </row>
     <row r="11">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>418.4647405306036</v>
+        <v>489.642871150134</v>
       </c>
       <c r="AB11" t="n">
-        <v>572.5619193553873</v>
+        <v>669.9509778265308</v>
       </c>
       <c r="AC11" t="n">
-        <v>517.9174133678093</v>
+        <v>606.0117967848688</v>
       </c>
       <c r="AD11" t="n">
-        <v>418464.7405306036</v>
+        <v>489642.871150134</v>
       </c>
       <c r="AE11" t="n">
-        <v>572561.9193553873</v>
+        <v>669950.9778265308</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284419021422926e-06</v>
+        <v>2.428532820994555e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH11" t="n">
-        <v>517917.4133678093</v>
+        <v>606011.7967848688</v>
       </c>
     </row>
     <row r="12">
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>414.4905001510824</v>
+        <v>485.6686307706128</v>
       </c>
       <c r="AB12" t="n">
-        <v>567.1241883370152</v>
+        <v>664.5132468081586</v>
       </c>
       <c r="AC12" t="n">
-        <v>512.9986517659271</v>
+        <v>601.0930351829867</v>
       </c>
       <c r="AD12" t="n">
-        <v>414490.5001510824</v>
+        <v>485668.6307706127</v>
       </c>
       <c r="AE12" t="n">
-        <v>567124.1883370152</v>
+        <v>664513.2468081586</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.288750271406672e-06</v>
+        <v>2.436722191103545e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>512998.6517659271</v>
+        <v>601093.0351829866</v>
       </c>
     </row>
     <row r="13">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>410.0431698122914</v>
+        <v>481.221300431822</v>
       </c>
       <c r="AB13" t="n">
-        <v>561.0391547651142</v>
+        <v>658.4282132362575</v>
       </c>
       <c r="AC13" t="n">
-        <v>507.4943652577302</v>
+        <v>595.5887486747896</v>
       </c>
       <c r="AD13" t="n">
-        <v>410043.1698122914</v>
+        <v>481221.300431822</v>
       </c>
       <c r="AE13" t="n">
-        <v>561039.1547651142</v>
+        <v>658428.2132362576</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>2.451155390356405e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>507494.3652577302</v>
+        <v>595588.7486747896</v>
       </c>
     </row>
     <row r="14">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>395.1216006056936</v>
+        <v>478.0915311896932</v>
       </c>
       <c r="AB14" t="n">
-        <v>540.6228054834737</v>
+        <v>654.145924883503</v>
       </c>
       <c r="AC14" t="n">
-        <v>489.0265236970031</v>
+        <v>591.7151559121926</v>
       </c>
       <c r="AD14" t="n">
-        <v>395121.6006056936</v>
+        <v>478091.5311896933</v>
       </c>
       <c r="AE14" t="n">
-        <v>540622.8054834737</v>
+        <v>654145.924883503</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.300116811419264e-06</v>
+        <v>2.458213631997302e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>489026.5236970031</v>
+        <v>591715.1559121925</v>
       </c>
     </row>
     <row r="15">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>392.1758891739765</v>
+        <v>475.1458197579762</v>
       </c>
       <c r="AB15" t="n">
-        <v>536.5923531469818</v>
+        <v>650.1154725470112</v>
       </c>
       <c r="AC15" t="n">
-        <v>485.3807320747307</v>
+        <v>588.06936428992</v>
       </c>
       <c r="AD15" t="n">
-        <v>392175.8891739766</v>
+        <v>475145.8197579762</v>
       </c>
       <c r="AE15" t="n">
-        <v>536592.3531469818</v>
+        <v>650115.4725470112</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.300068952303422e-06</v>
+        <v>2.458123141719855e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>485380.7320747307</v>
+        <v>588069.3642899201</v>
       </c>
     </row>
     <row r="16">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>390.065434957683</v>
+        <v>473.0353655416826</v>
       </c>
       <c r="AB16" t="n">
-        <v>533.7047365815801</v>
+        <v>647.2278559816094</v>
       </c>
       <c r="AC16" t="n">
-        <v>482.7687055815356</v>
+        <v>585.457337796725</v>
       </c>
       <c r="AD16" t="n">
-        <v>390065.434957683</v>
+        <v>473035.3655416826</v>
       </c>
       <c r="AE16" t="n">
-        <v>533704.73658158</v>
+        <v>647227.8559816094</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.30425662493964e-06</v>
+        <v>2.466041040996502e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>482768.7055815356</v>
+        <v>585457.337796725</v>
       </c>
     </row>
     <row r="17">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>386.770784779728</v>
+        <v>469.7407153637277</v>
       </c>
       <c r="AB17" t="n">
-        <v>529.1968508583946</v>
+        <v>642.7199702584239</v>
       </c>
       <c r="AC17" t="n">
-        <v>478.6910461449136</v>
+        <v>581.379678360103</v>
       </c>
       <c r="AD17" t="n">
-        <v>386770.784779728</v>
+        <v>469740.7153637277</v>
       </c>
       <c r="AE17" t="n">
-        <v>529196.8508583945</v>
+        <v>642719.9702584239</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.307439256143166e-06</v>
+        <v>2.472058644446754e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH17" t="n">
-        <v>478691.0461449136</v>
+        <v>581379.6783601029</v>
       </c>
     </row>
     <row r="18">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>384.3811763393264</v>
+        <v>467.351106923326</v>
       </c>
       <c r="AB18" t="n">
-        <v>525.9272831681529</v>
+        <v>639.4504025681823</v>
       </c>
       <c r="AC18" t="n">
-        <v>475.7335214061616</v>
+        <v>578.422153621351</v>
       </c>
       <c r="AD18" t="n">
-        <v>384381.1763393264</v>
+        <v>467351.106923326</v>
       </c>
       <c r="AE18" t="n">
-        <v>525927.2831681529</v>
+        <v>639450.4025681823</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.307295678795638e-06</v>
+        <v>2.471787173614412e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH18" t="n">
-        <v>475733.5214061616</v>
+        <v>578422.153621351</v>
       </c>
     </row>
     <row r="19">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>381.7209988548076</v>
+        <v>464.6909294388073</v>
       </c>
       <c r="AB19" t="n">
-        <v>522.2875109750865</v>
+        <v>635.8106303751159</v>
       </c>
       <c r="AC19" t="n">
-        <v>472.441123962749</v>
+        <v>575.1297561779385</v>
       </c>
       <c r="AD19" t="n">
-        <v>381720.9988548076</v>
+        <v>464690.9294388073</v>
       </c>
       <c r="AE19" t="n">
-        <v>522287.5109750865</v>
+        <v>635810.6303751159</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.311100478505117e-06</v>
+        <v>2.47898115067148e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>472441.123962749</v>
+        <v>575129.7561779384</v>
       </c>
     </row>
     <row r="20">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>381.5201068277559</v>
+        <v>464.4900374117556</v>
       </c>
       <c r="AB20" t="n">
-        <v>522.0126416409437</v>
+        <v>635.5357610409731</v>
       </c>
       <c r="AC20" t="n">
-        <v>472.1924877720754</v>
+        <v>574.8811199872646</v>
       </c>
       <c r="AD20" t="n">
-        <v>381520.1068277559</v>
+        <v>464490.0374117556</v>
       </c>
       <c r="AE20" t="n">
-        <v>522012.6416409437</v>
+        <v>635535.761040973</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.31136370364225e-06</v>
+        <v>2.479478847197441e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>472192.4877720753</v>
+        <v>574881.1199872646</v>
       </c>
     </row>
   </sheetData>
@@ -15797,28 +15797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.6605689789384</v>
+        <v>339.1723510179582</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.3297311785556</v>
+        <v>464.0705738908467</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.9859813959156</v>
+        <v>419.7803296458447</v>
       </c>
       <c r="AD2" t="n">
-        <v>270660.5689789384</v>
+        <v>339172.3510179582</v>
       </c>
       <c r="AE2" t="n">
-        <v>370329.7311785556</v>
+        <v>464070.5738908467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479488637916436e-06</v>
+        <v>3.39182645560374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>334985.9813959156</v>
+        <v>419780.3296458447</v>
       </c>
     </row>
     <row r="3">
@@ -15903,28 +15903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.8771885873424</v>
+        <v>296.674722496138</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.4740638259527</v>
+        <v>405.9234436842431</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.4112759802181</v>
+        <v>367.1826799361496</v>
       </c>
       <c r="AD3" t="n">
-        <v>237877.1885873424</v>
+        <v>296674.722496138</v>
       </c>
       <c r="AE3" t="n">
-        <v>325474.0638259527</v>
+        <v>405923.4436842431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575511350992465e-06</v>
+        <v>3.611964934672289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>294411.2759802181</v>
+        <v>367182.6799361496</v>
       </c>
     </row>
     <row r="4">
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.7539763877488</v>
+        <v>297.5515102965444</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.6737235756158</v>
+        <v>407.1231034339069</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.4964418871068</v>
+        <v>368.2678458430385</v>
       </c>
       <c r="AD4" t="n">
-        <v>238753.9763877488</v>
+        <v>297551.5102965444</v>
       </c>
       <c r="AE4" t="n">
-        <v>326673.7235756158</v>
+        <v>407123.1034339069</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.577859654742013e-06</v>
+        <v>3.617348577763139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.81640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>295496.4418871067</v>
+        <v>368267.8458430385</v>
       </c>
     </row>
   </sheetData>
@@ -16306,28 +16306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.8854341634666</v>
+        <v>665.9625081507019</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.5836131778399</v>
+        <v>911.1992838441008</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.5131771131809</v>
+        <v>824.2357030702459</v>
       </c>
       <c r="AD2" t="n">
-        <v>574885.4341634666</v>
+        <v>665962.5081507019</v>
       </c>
       <c r="AE2" t="n">
-        <v>786583.6131778399</v>
+        <v>911199.2838441008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004885913690493e-06</v>
+        <v>1.96956250337618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>711513.1771131809</v>
+        <v>824235.7030702459</v>
       </c>
     </row>
     <row r="3">
@@ -16412,28 +16412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.2364474682685</v>
+        <v>529.0034821348675</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.6651263393995</v>
+        <v>723.8059022434459</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.0023493694895</v>
+        <v>654.7268828012947</v>
       </c>
       <c r="AD3" t="n">
-        <v>449236.4474682685</v>
+        <v>529003.4821348675</v>
       </c>
       <c r="AE3" t="n">
-        <v>614665.1263393995</v>
+        <v>723805.9022434459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.192816894875332e-06</v>
+        <v>2.337904629304673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>556002.3493694895</v>
+        <v>654726.8828012947</v>
       </c>
     </row>
     <row r="4">
@@ -16518,28 +16518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.4144024936604</v>
+        <v>491.0960963056876</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.9153358142795</v>
+        <v>671.9393445961282</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.1914862207997</v>
+        <v>607.8103966206662</v>
       </c>
       <c r="AD4" t="n">
-        <v>411414.4024936603</v>
+        <v>491096.0963056876</v>
       </c>
       <c r="AE4" t="n">
-        <v>562915.3358142795</v>
+        <v>671939.3445961282</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261953802038777e-06</v>
+        <v>2.473412011877518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.83203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>509191.4862207997</v>
+        <v>607810.3966206663</v>
       </c>
     </row>
     <row r="5">
@@ -16624,28 +16624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.4428480074673</v>
+        <v>465.7293406613888</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.7988385847884</v>
+        <v>637.2314304213218</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.8994406567189</v>
+        <v>576.4149570618398</v>
       </c>
       <c r="AD5" t="n">
-        <v>397442.8480074673</v>
+        <v>465729.3406613888</v>
       </c>
       <c r="AE5" t="n">
-        <v>543798.8385847884</v>
+        <v>637231.4304213218</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.299022528801473e-06</v>
+        <v>2.54606620404504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.46744791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>491899.4406567189</v>
+        <v>576414.9570618398</v>
       </c>
     </row>
     <row r="6">
@@ -16730,28 +16730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.7279160174907</v>
+        <v>457.014408671412</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.8746841604378</v>
+        <v>625.3072759969712</v>
       </c>
       <c r="AC6" t="n">
-        <v>481.1133107949726</v>
+        <v>565.6288272000933</v>
       </c>
       <c r="AD6" t="n">
-        <v>388727.9160174907</v>
+        <v>457014.408671412</v>
       </c>
       <c r="AE6" t="n">
-        <v>531874.6841604378</v>
+        <v>625307.2759969712</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319746186112431e-06</v>
+        <v>2.586684285974936e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>481113.3107949726</v>
+        <v>565628.8272000933</v>
       </c>
     </row>
     <row r="7">
@@ -16836,28 +16836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>381.4836240682474</v>
+        <v>449.7701167221689</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.9627243198785</v>
+        <v>615.3953161564118</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.1473344900731</v>
+        <v>556.6628508951939</v>
       </c>
       <c r="AD7" t="n">
-        <v>381483.6240682474</v>
+        <v>449770.1167221689</v>
       </c>
       <c r="AE7" t="n">
-        <v>521962.7243198784</v>
+        <v>615395.3161564118</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336364917305371e-06</v>
+        <v>2.619256769443328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>472147.3344900731</v>
+        <v>556662.8508951939</v>
       </c>
     </row>
     <row r="8">
@@ -16942,28 +16942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>375.6875394666645</v>
+        <v>443.9740321205859</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.0322656627869</v>
+        <v>607.4648574993201</v>
       </c>
       <c r="AC8" t="n">
-        <v>464.9737476767457</v>
+        <v>549.4892640818665</v>
       </c>
       <c r="AD8" t="n">
-        <v>375687.5394666645</v>
+        <v>443974.0321205859</v>
       </c>
       <c r="AE8" t="n">
-        <v>514032.2656627869</v>
+        <v>607464.8574993202</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348231885537456e-06</v>
+        <v>2.642515863177494e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>464973.7476767458</v>
+        <v>549489.2640818665</v>
       </c>
     </row>
     <row r="9">
@@ -17048,28 +17048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>360.1403478102222</v>
+        <v>439.736700767678</v>
       </c>
       <c r="AB9" t="n">
-        <v>492.7599121447547</v>
+        <v>601.6671538044056</v>
       </c>
       <c r="AC9" t="n">
-        <v>445.7315977225388</v>
+        <v>544.2448850904664</v>
       </c>
       <c r="AD9" t="n">
-        <v>360140.3478102222</v>
+        <v>439736.700767678</v>
       </c>
       <c r="AE9" t="n">
-        <v>492759.9121447547</v>
+        <v>601667.1538044056</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.352336811655472e-06</v>
+        <v>2.650561461638998e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>445731.5977225387</v>
+        <v>544244.8850904664</v>
       </c>
     </row>
     <row r="10">
@@ -17154,28 +17154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>355.2775650554674</v>
+        <v>434.8739180129231</v>
       </c>
       <c r="AB10" t="n">
-        <v>486.1064382488647</v>
+        <v>595.0136799085157</v>
       </c>
       <c r="AC10" t="n">
-        <v>439.7131220370633</v>
+        <v>538.2264094049909</v>
       </c>
       <c r="AD10" t="n">
-        <v>355277.5650554674</v>
+        <v>434873.9180129231</v>
       </c>
       <c r="AE10" t="n">
-        <v>486106.4382488647</v>
+        <v>595013.6799085157</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.666993986981585e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>439713.1220370634</v>
+        <v>538226.409404991</v>
       </c>
     </row>
     <row r="11">
@@ -17260,28 +17260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>350.4537161493775</v>
+        <v>418.8254601493194</v>
       </c>
       <c r="AB11" t="n">
-        <v>479.5062353623584</v>
+        <v>573.0554718515409</v>
       </c>
       <c r="AC11" t="n">
-        <v>433.7428332506022</v>
+        <v>518.3638619064353</v>
       </c>
       <c r="AD11" t="n">
-        <v>350453.7161493775</v>
+        <v>418825.4601493194</v>
       </c>
       <c r="AE11" t="n">
-        <v>479506.2353623584</v>
+        <v>573055.471851541</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367313572401206e-06</v>
+        <v>2.679915705722789e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>433742.8332506022</v>
+        <v>518363.8619064353</v>
       </c>
     </row>
     <row r="12">
@@ -17366,28 +17366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>346.3977546909005</v>
+        <v>414.7694986908424</v>
       </c>
       <c r="AB12" t="n">
-        <v>473.9566899584792</v>
+        <v>567.5059264476619</v>
       </c>
       <c r="AC12" t="n">
-        <v>428.7229286712334</v>
+        <v>513.3439573270665</v>
       </c>
       <c r="AD12" t="n">
-        <v>346397.7546909004</v>
+        <v>414769.4986908424</v>
       </c>
       <c r="AE12" t="n">
-        <v>473956.6899584792</v>
+        <v>567505.9264476618</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371866308641188e-06</v>
+        <v>2.688839005834638e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.80338541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>428722.9286712334</v>
+        <v>513343.9573270665</v>
       </c>
     </row>
     <row r="13">
@@ -17472,28 +17472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>343.1156730394945</v>
+        <v>411.4874170394365</v>
       </c>
       <c r="AB13" t="n">
-        <v>469.4660010478023</v>
+        <v>563.015237536985</v>
       </c>
       <c r="AC13" t="n">
-        <v>424.66082480747</v>
+        <v>509.281853463303</v>
       </c>
       <c r="AD13" t="n">
-        <v>343115.6730394945</v>
+        <v>411487.4170394365</v>
       </c>
       <c r="AE13" t="n">
-        <v>469466.0010478023</v>
+        <v>563015.237536985</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.375025857835056e-06</v>
+        <v>2.695031678589856e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.77734375</v>
       </c>
       <c r="AH13" t="n">
-        <v>424660.82480747</v>
+        <v>509281.8534633031</v>
       </c>
     </row>
     <row r="14">
@@ -17578,28 +17578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>343.8529522878331</v>
+        <v>412.2246962877751</v>
       </c>
       <c r="AB14" t="n">
-        <v>470.474779041844</v>
+        <v>564.0240155310266</v>
       </c>
       <c r="AC14" t="n">
-        <v>425.5733264455892</v>
+        <v>510.1943551014223</v>
       </c>
       <c r="AD14" t="n">
-        <v>343852.9522878331</v>
+        <v>412224.6962877751</v>
       </c>
       <c r="AE14" t="n">
-        <v>470474.779041844</v>
+        <v>564024.0155310266</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37490146613451e-06</v>
+        <v>2.694787872575872e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.77734375</v>
       </c>
       <c r="AH14" t="n">
-        <v>425573.3264455892</v>
+        <v>510194.3551014223</v>
       </c>
     </row>
   </sheetData>
@@ -17875,28 +17875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.4000411742572</v>
+        <v>742.1275957137267</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.1188564398186</v>
+        <v>1015.411716814346</v>
       </c>
       <c r="AC2" t="n">
-        <v>788.8850568077042</v>
+        <v>918.5022477008796</v>
       </c>
       <c r="AD2" t="n">
-        <v>637400.0411742573</v>
+        <v>742127.5957137267</v>
       </c>
       <c r="AE2" t="n">
-        <v>872118.8564398186</v>
+        <v>1015411.716814346</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.335937839493852e-07</v>
+        <v>1.79502364502399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.99869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>788885.0568077043</v>
+        <v>918502.2477008796</v>
       </c>
     </row>
     <row r="3">
@@ -17981,28 +17981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.0121525108501</v>
+        <v>580.0084889297434</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.351512525147</v>
+        <v>793.5932027222849</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.7558593999678</v>
+        <v>717.8537812695249</v>
       </c>
       <c r="AD3" t="n">
-        <v>487012.1525108501</v>
+        <v>580008.4889297434</v>
       </c>
       <c r="AE3" t="n">
-        <v>666351.5125251469</v>
+        <v>793593.2027222849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134645521025483e-06</v>
+        <v>2.181586439388426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>602755.8593999678</v>
+        <v>717853.7812695249</v>
       </c>
     </row>
     <row r="4">
@@ -18087,28 +18087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>455.1545904543866</v>
+        <v>525.0299435589651</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.7625906630479</v>
+        <v>718.3691314637463</v>
       </c>
       <c r="AC4" t="n">
-        <v>563.3270030629515</v>
+        <v>649.8089897942541</v>
       </c>
       <c r="AD4" t="n">
-        <v>455154.5904543866</v>
+        <v>525029.9435589651</v>
       </c>
       <c r="AE4" t="n">
-        <v>622762.590663048</v>
+        <v>718369.1314637463</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.209698660993633e-06</v>
+        <v>2.325891342861764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.11848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>563327.0030629515</v>
+        <v>649808.9897942541</v>
       </c>
     </row>
     <row r="5">
@@ -18193,28 +18193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>427.1799276108839</v>
+        <v>508.6157276183444</v>
       </c>
       <c r="AB5" t="n">
-        <v>584.4864228055453</v>
+        <v>695.9104770696894</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.7038589448299</v>
+        <v>629.4937578546463</v>
       </c>
       <c r="AD5" t="n">
-        <v>427179.9276108839</v>
+        <v>508615.7276183444</v>
       </c>
       <c r="AE5" t="n">
-        <v>584486.4228055453</v>
+        <v>695910.4770696893</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250357523438217e-06</v>
+        <v>2.404066262963592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>528703.8589448299</v>
+        <v>629493.7578546463</v>
       </c>
     </row>
     <row r="6">
@@ -18299,28 +18299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>417.3581583990237</v>
+        <v>487.1481706490306</v>
       </c>
       <c r="AB6" t="n">
-        <v>571.0478448640017</v>
+        <v>666.5376185425025</v>
       </c>
       <c r="AC6" t="n">
-        <v>516.5478400208647</v>
+        <v>602.9242037202283</v>
       </c>
       <c r="AD6" t="n">
-        <v>417358.1583990237</v>
+        <v>487148.1706490307</v>
       </c>
       <c r="AE6" t="n">
-        <v>571047.8448640017</v>
+        <v>666537.6185425025</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274148320647998e-06</v>
+        <v>2.449808902063943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.45442708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>516547.8400208646</v>
+        <v>602924.2037202283</v>
       </c>
     </row>
     <row r="7">
@@ -18405,28 +18405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.8904412419886</v>
+        <v>479.6804534919954</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.8301847973167</v>
+        <v>656.3199584758175</v>
       </c>
       <c r="AC7" t="n">
-        <v>507.3053390903681</v>
+        <v>593.6817027897318</v>
       </c>
       <c r="AD7" t="n">
-        <v>409890.4412419886</v>
+        <v>479680.4534919954</v>
       </c>
       <c r="AE7" t="n">
-        <v>560830.1847973168</v>
+        <v>656319.9584758176</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.290943258432362e-06</v>
+        <v>2.482100580691137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>507305.3390903681</v>
+        <v>593681.7027897318</v>
       </c>
     </row>
     <row r="8">
@@ -18511,28 +18511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>404.3304466518755</v>
+        <v>474.1204589018824</v>
       </c>
       <c r="AB8" t="n">
-        <v>553.2227549094745</v>
+        <v>648.7125285879753</v>
       </c>
       <c r="AC8" t="n">
-        <v>500.4239516339266</v>
+        <v>586.8003153332904</v>
       </c>
       <c r="AD8" t="n">
-        <v>404330.4466518755</v>
+        <v>474120.4589018824</v>
       </c>
       <c r="AE8" t="n">
-        <v>553222.7549094745</v>
+        <v>648712.5285879753</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.30179049691428e-06</v>
+        <v>2.502956599543243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>500423.9516339266</v>
+        <v>586800.3153332904</v>
       </c>
     </row>
     <row r="9">
@@ -18617,28 +18617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>398.8651066043245</v>
+        <v>468.6551188543313</v>
       </c>
       <c r="AB9" t="n">
-        <v>545.7448355426293</v>
+        <v>641.23460922113</v>
       </c>
       <c r="AC9" t="n">
-        <v>493.6597143961272</v>
+        <v>580.036078095491</v>
       </c>
       <c r="AD9" t="n">
-        <v>398865.1066043245</v>
+        <v>468655.1188543313</v>
       </c>
       <c r="AE9" t="n">
-        <v>545744.8355426292</v>
+        <v>641234.60922113</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.312881493564331e-06</v>
+        <v>2.524281292976296e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>493659.7143961273</v>
+        <v>580036.078095491</v>
       </c>
     </row>
     <row r="10">
@@ -18723,28 +18723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>394.5876910137368</v>
+        <v>464.3777032637438</v>
       </c>
       <c r="AB10" t="n">
-        <v>539.8922868253295</v>
+        <v>635.3820605038304</v>
       </c>
       <c r="AC10" t="n">
-        <v>488.365724714303</v>
+        <v>574.7420884136667</v>
       </c>
       <c r="AD10" t="n">
-        <v>394587.6910137368</v>
+        <v>464377.7032637438</v>
       </c>
       <c r="AE10" t="n">
-        <v>539892.2868253295</v>
+        <v>635382.0605038304</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320072359524255e-06</v>
+        <v>2.538107193114209e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>488365.724714303</v>
+        <v>574742.0884136667</v>
       </c>
     </row>
     <row r="11">
@@ -18829,28 +18829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>379.3074340438632</v>
+        <v>460.657893196752</v>
       </c>
       <c r="AB11" t="n">
-        <v>518.9851651217876</v>
+        <v>630.292452263734</v>
       </c>
       <c r="AC11" t="n">
-        <v>469.4539493628176</v>
+        <v>570.1382252406953</v>
       </c>
       <c r="AD11" t="n">
-        <v>379307.4340438631</v>
+        <v>460657.8931967519</v>
       </c>
       <c r="AE11" t="n">
-        <v>518985.1651217877</v>
+        <v>630292.4522637341</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.322924330091411e-06</v>
+        <v>2.543590685711279e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.99869791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>469453.9493628176</v>
+        <v>570138.2252406953</v>
       </c>
     </row>
     <row r="12">
@@ -18935,28 +18935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>374.4930530385064</v>
+        <v>455.8435121913953</v>
       </c>
       <c r="AB12" t="n">
-        <v>512.3979166347589</v>
+        <v>623.7052037767053</v>
       </c>
       <c r="AC12" t="n">
-        <v>463.4953786261295</v>
+        <v>564.1796545040072</v>
       </c>
       <c r="AD12" t="n">
-        <v>374493.0530385064</v>
+        <v>455843.5121913953</v>
       </c>
       <c r="AE12" t="n">
-        <v>512397.9166347588</v>
+        <v>623705.2037767053</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.33074896728848e-06</v>
+        <v>2.558635139759653e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>463495.3786261295</v>
+        <v>564179.6545040072</v>
       </c>
     </row>
     <row r="13">
@@ -19041,28 +19041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>371.4204558821018</v>
+        <v>452.7709150349907</v>
       </c>
       <c r="AB13" t="n">
-        <v>508.1938536519464</v>
+        <v>619.5011407938928</v>
       </c>
       <c r="AC13" t="n">
-        <v>459.6925455139571</v>
+        <v>560.3768213918347</v>
       </c>
       <c r="AD13" t="n">
-        <v>371420.4558821018</v>
+        <v>452770.9150349906</v>
       </c>
       <c r="AE13" t="n">
-        <v>508193.8536519464</v>
+        <v>619501.1407938928</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.333990950924649e-06</v>
+        <v>2.564868511686237e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH13" t="n">
-        <v>459692.5455139571</v>
+        <v>560376.8213918348</v>
       </c>
     </row>
     <row r="14">
@@ -19147,28 +19147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>367.4121164576093</v>
+        <v>437.2873800536369</v>
       </c>
       <c r="AB14" t="n">
-        <v>502.7094668159009</v>
+        <v>598.3158851470509</v>
       </c>
       <c r="AC14" t="n">
-        <v>454.7315808601585</v>
+        <v>541.2134568102346</v>
       </c>
       <c r="AD14" t="n">
-        <v>367412.1164576093</v>
+        <v>437287.3800536369</v>
       </c>
       <c r="AE14" t="n">
-        <v>502709.4668159009</v>
+        <v>598315.885147051</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.338256718866976e-06</v>
+        <v>2.573070316852796e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH14" t="n">
-        <v>454731.5808601585</v>
+        <v>541213.4568102346</v>
       </c>
     </row>
     <row r="15">
@@ -19253,28 +19253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>364.0562603220201</v>
+        <v>433.9315239180477</v>
       </c>
       <c r="AB15" t="n">
-        <v>498.117836401264</v>
+        <v>593.7242547324139</v>
       </c>
       <c r="AC15" t="n">
-        <v>450.5781692079008</v>
+        <v>537.0600451579768</v>
       </c>
       <c r="AD15" t="n">
-        <v>364056.2603220202</v>
+        <v>433931.5239180477</v>
       </c>
       <c r="AE15" t="n">
-        <v>498117.836401264</v>
+        <v>593724.2547324139</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.338110463966097e-06</v>
+        <v>2.572789112104228e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>450578.1692079008</v>
+        <v>537060.0451579768</v>
       </c>
     </row>
     <row r="16">
@@ -19359,28 +19359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>362.6735317689085</v>
+        <v>432.548795364936</v>
       </c>
       <c r="AB16" t="n">
-        <v>496.225926193218</v>
+        <v>591.8323445243681</v>
       </c>
       <c r="AC16" t="n">
-        <v>448.866820254798</v>
+        <v>535.348696204874</v>
       </c>
       <c r="AD16" t="n">
-        <v>362673.5317689085</v>
+        <v>432548.795364936</v>
       </c>
       <c r="AE16" t="n">
-        <v>496225.926193218</v>
+        <v>591832.3445243681</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.341254944335012e-06</v>
+        <v>2.578835014198434e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>448866.820254798</v>
+        <v>535348.6962048741</v>
       </c>
     </row>
     <row r="17">
@@ -19465,28 +19465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>363.282397874061</v>
+        <v>433.1576614700884</v>
       </c>
       <c r="AB17" t="n">
-        <v>497.0590036595644</v>
+        <v>592.6654219907145</v>
       </c>
       <c r="AC17" t="n">
-        <v>449.620389976988</v>
+        <v>536.102265927064</v>
       </c>
       <c r="AD17" t="n">
-        <v>363282.397874061</v>
+        <v>433157.6614700885</v>
       </c>
       <c r="AE17" t="n">
-        <v>497059.0036595644</v>
+        <v>592665.4219907145</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.341401199235892e-06</v>
+        <v>2.579116218947002e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>449620.389976988</v>
+        <v>536102.265927064</v>
       </c>
     </row>
   </sheetData>
@@ -19762,28 +19762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>804.2099721336849</v>
+        <v>925.0531856728089</v>
       </c>
       <c r="AB2" t="n">
-        <v>1100.35556311328</v>
+        <v>1265.698579103831</v>
       </c>
       <c r="AC2" t="n">
-        <v>995.3391725284799</v>
+        <v>1144.902083133274</v>
       </c>
       <c r="AD2" t="n">
-        <v>804209.9721336849</v>
+        <v>925053.1856728089</v>
       </c>
       <c r="AE2" t="n">
-        <v>1100355.56311328</v>
+        <v>1265698.579103831</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.068727044834877e-07</v>
+        <v>1.503142650043289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>995339.1725284799</v>
+        <v>1144902.083133274</v>
       </c>
     </row>
     <row r="3">
@@ -19868,28 +19868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.4119461412369</v>
+        <v>675.0694488016215</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.4087424445537</v>
+        <v>923.6598018125552</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.8778028147908</v>
+        <v>835.507006692238</v>
       </c>
       <c r="AD3" t="n">
-        <v>578411.9461412368</v>
+        <v>675069.4488016216</v>
       </c>
       <c r="AE3" t="n">
-        <v>791408.7424445536</v>
+        <v>923659.8018125552</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.029001508444198e-06</v>
+        <v>1.916951764146593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>715877.8028147909</v>
+        <v>835507.0066922379</v>
       </c>
     </row>
     <row r="4">
@@ -19974,28 +19974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.6866026564372</v>
+        <v>604.336590732024</v>
       </c>
       <c r="AB4" t="n">
-        <v>711.0581367093441</v>
+        <v>826.8799848882685</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.1957461181663</v>
+        <v>747.963719663879</v>
       </c>
       <c r="AD4" t="n">
-        <v>519686.6026564372</v>
+        <v>604336.5907320239</v>
       </c>
       <c r="AE4" t="n">
-        <v>711058.1367093441</v>
+        <v>826879.9848882685</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.117137775750291e-06</v>
+        <v>2.081142945317123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.7109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>643195.7461181664</v>
+        <v>747963.719663879</v>
       </c>
     </row>
     <row r="5">
@@ -20080,28 +20080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.0430380525363</v>
+        <v>571.6002601973047</v>
       </c>
       <c r="AB5" t="n">
-        <v>682.8127008884927</v>
+        <v>782.0886932256906</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.6460150493389</v>
+        <v>707.4472460126049</v>
       </c>
       <c r="AD5" t="n">
-        <v>499043.0380525363</v>
+        <v>571600.2601973047</v>
       </c>
       <c r="AE5" t="n">
-        <v>682812.7008884927</v>
+        <v>782088.6932256906</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.16125296560585e-06</v>
+        <v>2.163326198038624e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>617646.0150493389</v>
+        <v>707447.2460126049</v>
       </c>
     </row>
     <row r="6">
@@ -20186,28 +20186,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.8975922411452</v>
+        <v>559.4622394621604</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.7758367074578</v>
+        <v>765.4809177641845</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.7621428182118</v>
+        <v>692.4244933319856</v>
       </c>
       <c r="AD6" t="n">
-        <v>474897.5922411452</v>
+        <v>559462.2394621604</v>
       </c>
       <c r="AE6" t="n">
-        <v>649775.8367074578</v>
+        <v>765480.9177641845</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187486798506623e-06</v>
+        <v>2.212197838990343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.89713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>587762.1428182118</v>
+        <v>692424.4933319855</v>
       </c>
     </row>
     <row r="7">
@@ -20292,28 +20292,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>464.8611008369277</v>
+        <v>549.425748057943</v>
       </c>
       <c r="AB7" t="n">
-        <v>636.0434663894565</v>
+        <v>751.7485474461831</v>
       </c>
       <c r="AC7" t="n">
-        <v>575.3403706498577</v>
+        <v>680.0027211636316</v>
       </c>
       <c r="AD7" t="n">
-        <v>464861.1008369277</v>
+        <v>549425.748057943</v>
       </c>
       <c r="AE7" t="n">
-        <v>636043.4663894565</v>
+        <v>751748.5474461832</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.209509101282518e-06</v>
+        <v>2.253223718748917e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.66276041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>575340.3706498577</v>
+        <v>680002.7211636315</v>
       </c>
     </row>
     <row r="8">
@@ -20398,28 +20398,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>458.3102837420976</v>
+        <v>530.9527572328865</v>
       </c>
       <c r="AB8" t="n">
-        <v>627.0803494386565</v>
+        <v>726.4729864285036</v>
       </c>
       <c r="AC8" t="n">
-        <v>567.2326810010284</v>
+        <v>657.1394242150067</v>
       </c>
       <c r="AD8" t="n">
-        <v>458310.2837420976</v>
+        <v>530952.7572328865</v>
       </c>
       <c r="AE8" t="n">
-        <v>627080.3494386565</v>
+        <v>726472.9864285036</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.223202456213683e-06</v>
+        <v>2.278733400393671e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>567232.6810010284</v>
+        <v>657139.4242150066</v>
       </c>
     </row>
     <row r="9">
@@ -20504,28 +20504,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>452.2306557972153</v>
+        <v>524.702537087412</v>
       </c>
       <c r="AB9" t="n">
-        <v>618.7619342702131</v>
+        <v>717.9211594852135</v>
       </c>
       <c r="AC9" t="n">
-        <v>559.7081637012924</v>
+        <v>649.4037716326195</v>
       </c>
       <c r="AD9" t="n">
-        <v>452230.6557972153</v>
+        <v>524702.537087412</v>
       </c>
       <c r="AE9" t="n">
-        <v>618761.9342702131</v>
+        <v>717921.1594852135</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.235225315955651e-06</v>
+        <v>2.301131076202038e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>559708.1637012924</v>
+        <v>649403.7716326196</v>
       </c>
     </row>
     <row r="10">
@@ -20610,28 +20610,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>447.8485365533455</v>
+        <v>520.3204178435423</v>
       </c>
       <c r="AB10" t="n">
-        <v>612.7661253952938</v>
+        <v>711.9253506102939</v>
       </c>
       <c r="AC10" t="n">
-        <v>554.2845864102246</v>
+        <v>643.9801943415517</v>
       </c>
       <c r="AD10" t="n">
-        <v>447848.5365533455</v>
+        <v>520320.4178435422</v>
       </c>
       <c r="AE10" t="n">
-        <v>612766.1253952938</v>
+        <v>711925.3506102939</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.242966061268973e-06</v>
+        <v>2.315551497612904e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>554284.5864102247</v>
+        <v>643980.1943415517</v>
       </c>
     </row>
     <row r="11">
@@ -20716,28 +20716,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>444.4441442462744</v>
+        <v>516.9160255364711</v>
       </c>
       <c r="AB11" t="n">
-        <v>608.1080856495704</v>
+        <v>707.2673108645705</v>
       </c>
       <c r="AC11" t="n">
-        <v>550.0711034402333</v>
+        <v>639.7667113715605</v>
       </c>
       <c r="AD11" t="n">
-        <v>444444.1442462744</v>
+        <v>516916.0255364711</v>
       </c>
       <c r="AE11" t="n">
-        <v>608108.0856495705</v>
+        <v>707267.3108645706</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.249271592405661e-06</v>
+        <v>2.327298223868564e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>550071.1034402333</v>
+        <v>639766.7113715605</v>
       </c>
     </row>
     <row r="12">
@@ -20822,28 +20822,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>440.8884342264691</v>
+        <v>513.3603155166659</v>
       </c>
       <c r="AB12" t="n">
-        <v>603.2430063336179</v>
+        <v>702.402231548618</v>
       </c>
       <c r="AC12" t="n">
-        <v>545.6703404660136</v>
+        <v>635.3659483973407</v>
       </c>
       <c r="AD12" t="n">
-        <v>440888.4342264691</v>
+        <v>513360.3155166659</v>
       </c>
       <c r="AE12" t="n">
-        <v>603243.006333618</v>
+        <v>702402.2315486181</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253506650631795e-06</v>
+        <v>2.335187816129828e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>545670.3404660136</v>
+        <v>635365.9483973407</v>
       </c>
     </row>
     <row r="13">
@@ -20928,28 +20928,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>436.7151304637247</v>
+        <v>509.1870117539215</v>
       </c>
       <c r="AB13" t="n">
-        <v>597.532908012263</v>
+        <v>696.6921332272633</v>
       </c>
       <c r="AC13" t="n">
-        <v>540.5052059142755</v>
+        <v>630.2008138456026</v>
       </c>
       <c r="AD13" t="n">
-        <v>436715.1304637247</v>
+        <v>509187.0117539215</v>
       </c>
       <c r="AE13" t="n">
-        <v>597532.908012263</v>
+        <v>696692.1332272633</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.261365036451399e-06</v>
+        <v>2.349827392881285e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.14192708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>540505.2059142755</v>
+        <v>630200.8138456027</v>
       </c>
     </row>
     <row r="14">
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>433.0370706310368</v>
+        <v>505.5089519212335</v>
       </c>
       <c r="AB14" t="n">
-        <v>592.5004242846315</v>
+        <v>691.6596494996318</v>
       </c>
       <c r="AC14" t="n">
-        <v>535.953015370474</v>
+        <v>625.6486233018011</v>
       </c>
       <c r="AD14" t="n">
-        <v>433037.0706310368</v>
+        <v>505508.9519212334</v>
       </c>
       <c r="AE14" t="n">
-        <v>592500.4242846315</v>
+        <v>691659.6494996317</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.265694207082557e-06</v>
+        <v>2.357892309415021e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>535953.015370474</v>
+        <v>625648.623301801</v>
       </c>
     </row>
     <row r="15">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>430.3586527331872</v>
+        <v>502.8305340233838</v>
       </c>
       <c r="AB15" t="n">
-        <v>588.8356947533356</v>
+        <v>687.9949199683359</v>
       </c>
       <c r="AC15" t="n">
-        <v>532.6380424821646</v>
+        <v>622.3336504134918</v>
       </c>
       <c r="AD15" t="n">
-        <v>430358.6527331872</v>
+        <v>502830.5340233839</v>
       </c>
       <c r="AE15" t="n">
-        <v>588835.6947533356</v>
+        <v>687994.9199683359</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.26891755695467e-06</v>
+        <v>2.363897165747206e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>532638.0424821646</v>
+        <v>622333.6504134918</v>
       </c>
     </row>
     <row r="16">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>428.1603986684673</v>
+        <v>500.632279958664</v>
       </c>
       <c r="AB16" t="n">
-        <v>585.827946561861</v>
+        <v>684.9871717768614</v>
       </c>
       <c r="AC16" t="n">
-        <v>529.9173495566833</v>
+        <v>619.6129574880107</v>
       </c>
       <c r="AD16" t="n">
-        <v>428160.3986684673</v>
+        <v>500632.279958664</v>
       </c>
       <c r="AE16" t="n">
-        <v>585827.9465618611</v>
+        <v>684987.1717768614</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.269929265308691e-06</v>
+        <v>2.365781901676285e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>529917.3495566833</v>
+        <v>619612.9574880106</v>
       </c>
     </row>
     <row r="17">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>425.9065459546648</v>
+        <v>498.3784272448615</v>
       </c>
       <c r="AB17" t="n">
-        <v>582.7441258458724</v>
+        <v>681.9033510608726</v>
       </c>
       <c r="AC17" t="n">
-        <v>527.1278443616592</v>
+        <v>616.8234522929862</v>
       </c>
       <c r="AD17" t="n">
-        <v>425906.5459546648</v>
+        <v>498378.4272448616</v>
       </c>
       <c r="AE17" t="n">
-        <v>582744.1258458724</v>
+        <v>681903.3510608727</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.273693761509699e-06</v>
+        <v>2.372794872575187e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>527127.8443616591</v>
+        <v>616823.4522929862</v>
       </c>
     </row>
     <row r="18">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>409.7339439987713</v>
+        <v>494.2132503652148</v>
       </c>
       <c r="AB18" t="n">
-        <v>560.6160583649757</v>
+        <v>676.2043722995048</v>
       </c>
       <c r="AC18" t="n">
-        <v>507.1116485842014</v>
+        <v>611.6683760660366</v>
       </c>
       <c r="AD18" t="n">
-        <v>409733.9439987713</v>
+        <v>494213.2503652148</v>
       </c>
       <c r="AE18" t="n">
-        <v>560616.0583649757</v>
+        <v>676204.3722995048</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.277458257710707e-06</v>
+        <v>2.379807843474088e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH18" t="n">
-        <v>507111.6485842013</v>
+        <v>611668.3760660365</v>
       </c>
     </row>
     <row r="19">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>409.3921929917931</v>
+        <v>493.8714993582368</v>
       </c>
       <c r="AB19" t="n">
-        <v>560.1484595602381</v>
+        <v>675.7367734947671</v>
       </c>
       <c r="AC19" t="n">
-        <v>506.6886767531088</v>
+        <v>611.2454042349439</v>
       </c>
       <c r="AD19" t="n">
-        <v>409392.1929917932</v>
+        <v>493871.4993582368</v>
       </c>
       <c r="AE19" t="n">
-        <v>560148.4595602381</v>
+        <v>675736.7734947671</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277152392394375e-06</v>
+        <v>2.379238039588552e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH19" t="n">
-        <v>506688.6767531089</v>
+        <v>611245.4042349439</v>
       </c>
     </row>
     <row r="20">
@@ -21670,28 +21670,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>404.972405342661</v>
+        <v>489.4517117091045</v>
       </c>
       <c r="AB20" t="n">
-        <v>554.1011111114258</v>
+        <v>669.6894250459547</v>
       </c>
       <c r="AC20" t="n">
-        <v>501.2184787527444</v>
+        <v>605.7752062345794</v>
       </c>
       <c r="AD20" t="n">
-        <v>404972.405342661</v>
+        <v>489451.7117091045</v>
       </c>
       <c r="AE20" t="n">
-        <v>554101.1111114258</v>
+        <v>669689.4250459548</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.281011001000408e-06</v>
+        <v>2.386426334759926e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>501218.4787527444</v>
+        <v>605775.2062345794</v>
       </c>
     </row>
     <row r="21">
@@ -21776,28 +21776,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>404.0080111079228</v>
+        <v>488.4873174743664</v>
       </c>
       <c r="AB21" t="n">
-        <v>552.7815843733862</v>
+        <v>668.3698983079153</v>
       </c>
       <c r="AC21" t="n">
-        <v>500.0248857946158</v>
+        <v>604.581613276451</v>
       </c>
       <c r="AD21" t="n">
-        <v>404008.0111079228</v>
+        <v>488487.3174743664</v>
       </c>
       <c r="AE21" t="n">
-        <v>552781.5843733862</v>
+        <v>668369.8983079153</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.281552147329302e-06</v>
+        <v>2.387434449326644e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH21" t="n">
-        <v>500024.8857946158</v>
+        <v>604581.613276451</v>
       </c>
     </row>
     <row r="22">
@@ -21882,28 +21882,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>400.9462586434897</v>
+        <v>485.4255650099332</v>
       </c>
       <c r="AB22" t="n">
-        <v>548.5923595765631</v>
+        <v>664.1806735110923</v>
       </c>
       <c r="AC22" t="n">
-        <v>496.2354747327877</v>
+        <v>600.7922022146226</v>
       </c>
       <c r="AD22" t="n">
-        <v>400946.2586434897</v>
+        <v>485425.5650099332</v>
       </c>
       <c r="AE22" t="n">
-        <v>548592.3595765631</v>
+        <v>664180.6735110923</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.280799248089101e-06</v>
+        <v>2.386031855146863e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>496235.4747327877</v>
+        <v>600792.2022146226</v>
       </c>
     </row>
     <row r="23">
@@ -21988,28 +21988,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>399.2124404791975</v>
+        <v>483.691746845641</v>
       </c>
       <c r="AB23" t="n">
-        <v>546.2200730735196</v>
+        <v>661.8083870080486</v>
       </c>
       <c r="AC23" t="n">
-        <v>494.0895959240696</v>
+        <v>598.6463234059047</v>
       </c>
       <c r="AD23" t="n">
-        <v>399212.4404791975</v>
+        <v>483691.7468456411</v>
       </c>
       <c r="AE23" t="n">
-        <v>546220.0730735196</v>
+        <v>661808.3870080486</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.284775497201415e-06</v>
+        <v>2.393439305658828e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.92057291666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>494089.5959240696</v>
+        <v>598646.3234059047</v>
       </c>
     </row>
     <row r="24">
@@ -22094,28 +22094,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>400.2578519310283</v>
+        <v>484.7371582974718</v>
       </c>
       <c r="AB24" t="n">
-        <v>547.6504511422129</v>
+        <v>663.2387650767419</v>
       </c>
       <c r="AC24" t="n">
-        <v>495.3834607174349</v>
+        <v>599.9401881992699</v>
       </c>
       <c r="AD24" t="n">
-        <v>400257.8519310283</v>
+        <v>484737.1582974718</v>
       </c>
       <c r="AE24" t="n">
-        <v>547650.4511422128</v>
+        <v>663238.7650767418</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.284610800492621e-06</v>
+        <v>2.393132488182001e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>495383.4607174349</v>
+        <v>599940.1881992698</v>
       </c>
     </row>
   </sheetData>
@@ -22391,28 +22391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.5776345832865</v>
+        <v>592.3709102955665</v>
       </c>
       <c r="AB2" t="n">
-        <v>689.017135914145</v>
+        <v>810.5080130265432</v>
       </c>
       <c r="AC2" t="n">
-        <v>623.2583075041222</v>
+        <v>733.15426581843</v>
       </c>
       <c r="AD2" t="n">
-        <v>503577.6345832865</v>
+        <v>592370.9102955665</v>
       </c>
       <c r="AE2" t="n">
-        <v>689017.135914145</v>
+        <v>810508.0130265432</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08499395731888e-06</v>
+        <v>2.174867517598009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>623258.3075041221</v>
+        <v>733154.26581843</v>
       </c>
     </row>
     <row r="3">
@@ -22497,28 +22497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.8445749413455</v>
+        <v>477.5675653845507</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.1356726181849</v>
+        <v>653.4290117531671</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.4862329858762</v>
+        <v>591.0666639648219</v>
       </c>
       <c r="AD3" t="n">
-        <v>410844.5749413454</v>
+        <v>477567.5653845507</v>
       </c>
       <c r="AE3" t="n">
-        <v>562135.6726181849</v>
+        <v>653429.011753167</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258538010267787e-06</v>
+        <v>2.522736112703888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>508486.2329858762</v>
+        <v>591066.663964822</v>
       </c>
     </row>
     <row r="4">
@@ -22603,28 +22603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.5853566031583</v>
+        <v>456.34340017235</v>
       </c>
       <c r="AB4" t="n">
-        <v>517.9971869116071</v>
+        <v>624.3891725657488</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.5602624063804</v>
+        <v>564.7983462717806</v>
       </c>
       <c r="AD4" t="n">
-        <v>378585.3566031583</v>
+        <v>456343.40017235</v>
       </c>
       <c r="AE4" t="n">
-        <v>517997.186911607</v>
+        <v>624389.1725657488</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319118069818741e-06</v>
+        <v>2.644168681837358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>468560.2624063804</v>
+        <v>564798.3462717806</v>
       </c>
     </row>
     <row r="5">
@@ -22709,28 +22709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.035055029258</v>
+        <v>432.6727046178917</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.825310617968</v>
+        <v>592.0018826307524</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.0272458853265</v>
+        <v>535.5020538323334</v>
       </c>
       <c r="AD5" t="n">
-        <v>366035.055029258</v>
+        <v>432672.7046178917</v>
       </c>
       <c r="AE5" t="n">
-        <v>500825.310617968</v>
+        <v>592001.8826307524</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354677037546758e-06</v>
+        <v>2.715446538593432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>453027.2458853265</v>
+        <v>535502.0538323334</v>
       </c>
     </row>
     <row r="6">
@@ -22815,28 +22815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.4268115491091</v>
+        <v>425.0644611377428</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.415376236415</v>
+        <v>581.5919482491995</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.6108210307143</v>
+        <v>526.0856289777212</v>
       </c>
       <c r="AD6" t="n">
-        <v>358426.8115491091</v>
+        <v>425064.4611377428</v>
       </c>
       <c r="AE6" t="n">
-        <v>490415.376236415</v>
+        <v>581591.9482491995</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372952870638181e-06</v>
+        <v>2.752080397684958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>443610.8210307143</v>
+        <v>526085.6289777212</v>
       </c>
     </row>
     <row r="7">
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>340.7098480892787</v>
+        <v>418.3825508038987</v>
       </c>
       <c r="AB7" t="n">
-        <v>466.1742452134109</v>
+        <v>572.4494637453552</v>
       </c>
       <c r="AC7" t="n">
-        <v>421.6832295299047</v>
+        <v>517.8156903633661</v>
       </c>
       <c r="AD7" t="n">
-        <v>340709.8480892787</v>
+        <v>418382.5508038987</v>
       </c>
       <c r="AE7" t="n">
-        <v>466174.2452134109</v>
+        <v>572449.4637453551</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386112488616266e-06</v>
+        <v>2.77845881711437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>421683.2295299047</v>
+        <v>517815.6903633662</v>
       </c>
     </row>
     <row r="8">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>335.1555023877957</v>
+        <v>401.87840332245</v>
       </c>
       <c r="AB8" t="n">
-        <v>458.5745443842038</v>
+        <v>549.8677610496376</v>
       </c>
       <c r="AC8" t="n">
-        <v>414.8088334815899</v>
+        <v>497.389153679309</v>
       </c>
       <c r="AD8" t="n">
-        <v>335155.5023877957</v>
+        <v>401878.40332245</v>
       </c>
       <c r="AE8" t="n">
-        <v>458574.5443842037</v>
+        <v>549867.7610496376</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.395301312775045e-06</v>
+        <v>2.796877790835876e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>414808.8334815899</v>
+        <v>497389.153679309</v>
       </c>
     </row>
     <row r="9">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>329.6442560034094</v>
+        <v>396.3671569380636</v>
       </c>
       <c r="AB9" t="n">
-        <v>451.0338139420558</v>
+        <v>542.3270306074895</v>
       </c>
       <c r="AC9" t="n">
-        <v>407.9877797693588</v>
+        <v>490.568099967078</v>
       </c>
       <c r="AD9" t="n">
-        <v>329644.2560034094</v>
+        <v>396367.1569380636</v>
       </c>
       <c r="AE9" t="n">
-        <v>451033.8139420558</v>
+        <v>542327.0306074895</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403293808026725e-06</v>
+        <v>2.812898726427434e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>407987.7797693588</v>
+        <v>490568.099967078</v>
       </c>
     </row>
     <row r="10">
@@ -23239,28 +23239,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>324.42541158436</v>
+        <v>391.1483125190143</v>
       </c>
       <c r="AB10" t="n">
-        <v>443.893160768746</v>
+        <v>535.18637743418</v>
       </c>
       <c r="AC10" t="n">
-        <v>401.5286205129402</v>
+        <v>484.1089407106595</v>
       </c>
       <c r="AD10" t="n">
-        <v>324425.41158436</v>
+        <v>391148.3125190143</v>
       </c>
       <c r="AE10" t="n">
-        <v>443893.160768746</v>
+        <v>535186.37743418</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410039066758239e-06</v>
+        <v>2.826419579713304e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.75130208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>401528.6205129402</v>
+        <v>484108.9407106594</v>
       </c>
     </row>
     <row r="11">
@@ -23345,28 +23345,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>322.9436403687815</v>
+        <v>389.6665413034358</v>
       </c>
       <c r="AB11" t="n">
-        <v>441.8657360204593</v>
+        <v>533.158952685893</v>
       </c>
       <c r="AC11" t="n">
-        <v>399.6946903371214</v>
+        <v>482.2750105348405</v>
       </c>
       <c r="AD11" t="n">
-        <v>322943.6403687815</v>
+        <v>389666.5413034358</v>
       </c>
       <c r="AE11" t="n">
-        <v>441865.7360204593</v>
+        <v>533158.952685893</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.412100825087494e-06</v>
+        <v>2.830552368830871e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>399694.6903371214</v>
+        <v>482275.0105348405</v>
       </c>
     </row>
   </sheetData>
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.3478373609367</v>
+        <v>482.7793290630204</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.7195261123813</v>
+        <v>660.5599767448354</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.396118707995</v>
+        <v>597.5170596660577</v>
       </c>
       <c r="AD2" t="n">
-        <v>408347.8373609367</v>
+        <v>482779.3290630204</v>
       </c>
       <c r="AE2" t="n">
-        <v>558719.5261123814</v>
+        <v>660559.9767448354</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223799975450885e-06</v>
+        <v>2.560266082544463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>505396.1187079949</v>
+        <v>597517.0596660577</v>
       </c>
     </row>
     <row r="3">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.4604496748941</v>
+        <v>415.8918518684268</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.2012514170548</v>
+        <v>569.0415795799604</v>
       </c>
       <c r="AC3" t="n">
-        <v>422.6122197028851</v>
+        <v>514.7330498797212</v>
       </c>
       <c r="AD3" t="n">
-        <v>341460.4496748941</v>
+        <v>415891.8518684268</v>
       </c>
       <c r="AE3" t="n">
-        <v>467201.2514170548</v>
+        <v>569041.5795799604</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370318708970722e-06</v>
+        <v>2.866792436044348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>422612.2197028851</v>
+        <v>514733.0498797212</v>
       </c>
     </row>
     <row r="4">
@@ -23854,28 +23854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.6678129238929</v>
+        <v>389.4540556191046</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.5930690923737</v>
+        <v>532.8682203983843</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.0662919719971</v>
+        <v>482.0120253288063</v>
       </c>
       <c r="AD4" t="n">
-        <v>325667.8129238929</v>
+        <v>389454.0556191046</v>
       </c>
       <c r="AE4" t="n">
-        <v>445593.0690923737</v>
+        <v>532868.2203983844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421252926685454e-06</v>
+        <v>2.973350004823443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>403066.2919719971</v>
+        <v>482012.0253288063</v>
       </c>
     </row>
     <row r="5">
@@ -23960,28 +23960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.3374313568067</v>
+        <v>378.6834926957678</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.4079000022663</v>
+        <v>518.1314610429743</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.6665144582075</v>
+        <v>468.6817216031048</v>
       </c>
       <c r="AD5" t="n">
-        <v>304337.4313568067</v>
+        <v>378683.4926957678</v>
       </c>
       <c r="AE5" t="n">
-        <v>416407.9000022663</v>
+        <v>518131.4610429743</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.450524856074867e-06</v>
+        <v>3.034588711711586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>376666.5144582075</v>
+        <v>468681.7216031048</v>
       </c>
     </row>
     <row r="6">
@@ -24066,28 +24066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.7520755468157</v>
+        <v>360.6235695880479</v>
       </c>
       <c r="AB6" t="n">
-        <v>406.0292815407561</v>
+        <v>493.421077499416</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.2784167761812</v>
+        <v>446.3296623837027</v>
       </c>
       <c r="AD6" t="n">
-        <v>296752.0755468156</v>
+        <v>360623.5695880479</v>
       </c>
       <c r="AE6" t="n">
-        <v>406029.2815407561</v>
+        <v>493421.077499416</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466619114353286e-06</v>
+        <v>3.068258906531424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>367278.4167761813</v>
+        <v>446329.6623837026</v>
       </c>
     </row>
     <row r="7">
@@ -24172,28 +24172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>291.6234847917556</v>
+        <v>355.4949788329879</v>
       </c>
       <c r="AB7" t="n">
-        <v>399.0121174122273</v>
+        <v>486.4039133708872</v>
       </c>
       <c r="AC7" t="n">
-        <v>360.9309609434276</v>
+        <v>439.982206550949</v>
       </c>
       <c r="AD7" t="n">
-        <v>291623.4847917556</v>
+        <v>355494.9788329879</v>
       </c>
       <c r="AE7" t="n">
-        <v>399012.1174122273</v>
+        <v>486403.9133708872</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.473990125558229e-06</v>
+        <v>3.083679522939852e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>360930.9609434276</v>
+        <v>439982.206550949</v>
       </c>
     </row>
     <row r="8">
@@ -24278,28 +24278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>292.5788550715679</v>
+        <v>356.4503491128002</v>
       </c>
       <c r="AB8" t="n">
-        <v>400.3192971770285</v>
+        <v>487.7110931356884</v>
       </c>
       <c r="AC8" t="n">
-        <v>362.1133853061144</v>
+        <v>441.1646309136359</v>
       </c>
       <c r="AD8" t="n">
-        <v>292578.8550715679</v>
+        <v>356450.3491128001</v>
       </c>
       <c r="AE8" t="n">
-        <v>400319.2971770285</v>
+        <v>487711.0931356885</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474865101708456e-06</v>
+        <v>3.085510027765312e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.70572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>362113.3853061144</v>
+        <v>441164.6309136359</v>
       </c>
     </row>
   </sheetData>
@@ -45540,28 +45540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.6685085614017</v>
+        <v>414.3556127810675</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.8541708813713</v>
+        <v>566.9396294865501</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.1073868534141</v>
+        <v>512.8317069531204</v>
       </c>
       <c r="AD2" t="n">
-        <v>342668.5085614017</v>
+        <v>414355.6127810675</v>
       </c>
       <c r="AE2" t="n">
-        <v>468854.1708813712</v>
+        <v>566939.6294865501</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332669518310502e-06</v>
+        <v>2.897031321691599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>424107.3868534141</v>
+        <v>512831.7069531204</v>
       </c>
     </row>
     <row r="3">
@@ -45646,28 +45646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.6633912448072</v>
+        <v>360.1704511161507</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.6444280000457</v>
+        <v>492.80110081599</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.6439773277774</v>
+        <v>445.7688554048</v>
       </c>
       <c r="AD3" t="n">
-        <v>298663.3912448072</v>
+        <v>360170.4511161507</v>
       </c>
       <c r="AE3" t="n">
-        <v>408644.4280000457</v>
+        <v>492801.10081599</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461800334401015e-06</v>
+        <v>3.177743091316281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>369643.9773277774</v>
+        <v>445768.8554048</v>
       </c>
     </row>
     <row r="4">
@@ -45752,28 +45752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.8033209881738</v>
+        <v>336.3956322055379</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.9980272429112</v>
+        <v>460.2713447115048</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.1133032393926</v>
+        <v>416.3436935671275</v>
       </c>
       <c r="AD4" t="n">
-        <v>274803.3209881738</v>
+        <v>336395.6322055379</v>
       </c>
       <c r="AE4" t="n">
-        <v>375998.0272429112</v>
+        <v>460271.3447115048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505081648715125e-06</v>
+        <v>3.271830426164995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>340113.3032393926</v>
+        <v>416343.6935671275</v>
       </c>
     </row>
     <row r="5">
@@ -45858,28 +45858,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.649521639243</v>
+        <v>329.2418328566071</v>
       </c>
       <c r="AB5" t="n">
-        <v>366.209883370351</v>
+        <v>450.4832008389445</v>
       </c>
       <c r="AC5" t="n">
-        <v>331.2593260802832</v>
+        <v>407.4897164080182</v>
       </c>
       <c r="AD5" t="n">
-        <v>267649.521639243</v>
+        <v>329241.832856607</v>
       </c>
       <c r="AE5" t="n">
-        <v>366209.8833703509</v>
+        <v>450483.2008389445</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52118185879268e-06</v>
+        <v>3.306829960737996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>331259.3260802833</v>
+        <v>407489.7164080183</v>
       </c>
     </row>
     <row r="6">
@@ -45964,28 +45964,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>268.7431442842741</v>
+        <v>330.335455501638</v>
       </c>
       <c r="AB6" t="n">
-        <v>367.7062261205084</v>
+        <v>451.979543589102</v>
       </c>
       <c r="AC6" t="n">
-        <v>332.6128599784959</v>
+        <v>408.8432503062309</v>
       </c>
       <c r="AD6" t="n">
-        <v>268743.1442842741</v>
+        <v>330335.455501638</v>
       </c>
       <c r="AE6" t="n">
-        <v>367706.2261205084</v>
+        <v>451979.543589102</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521977269512014e-06</v>
+        <v>3.308559068919626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>332612.8599784959</v>
+        <v>408843.2503062309</v>
       </c>
     </row>
   </sheetData>
@@ -46261,28 +46261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.4867167826484</v>
+        <v>292.4757294828742</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.203314842599</v>
+        <v>400.1781961969979</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.4526826893096</v>
+        <v>361.9857508055816</v>
       </c>
       <c r="AD2" t="n">
-        <v>235486.7167826484</v>
+        <v>292475.7294828742</v>
       </c>
       <c r="AE2" t="n">
-        <v>322203.314842599</v>
+        <v>400178.1961969979</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569104876310996e-06</v>
+        <v>3.732158256901231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>291452.6826893096</v>
+        <v>361985.7508055816</v>
       </c>
     </row>
     <row r="3">
@@ -46367,28 +46367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.6183391928921</v>
+        <v>286.0342988710355</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.491500560894</v>
+        <v>391.3647466580178</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.8130134899208</v>
+        <v>354.0134445208476</v>
       </c>
       <c r="AD3" t="n">
-        <v>219618.3391928921</v>
+        <v>286034.2988710355</v>
       </c>
       <c r="AE3" t="n">
-        <v>300491.500560894</v>
+        <v>391364.7466580178</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.603047540095664e-06</v>
+        <v>3.812891797926861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>271813.0134899208</v>
+        <v>354013.4445208476</v>
       </c>
     </row>
   </sheetData>
@@ -46664,28 +46664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>606.6084554682094</v>
+        <v>710.2324213240198</v>
       </c>
       <c r="AB2" t="n">
-        <v>829.9884504479156</v>
+        <v>971.7713320985641</v>
       </c>
       <c r="AC2" t="n">
-        <v>750.7755176332723</v>
+        <v>879.0268400527071</v>
       </c>
       <c r="AD2" t="n">
-        <v>606608.4554682093</v>
+        <v>710232.4213240198</v>
       </c>
       <c r="AE2" t="n">
-        <v>829988.4504479156</v>
+        <v>971771.3320985641</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.67114367248156e-07</v>
+        <v>1.876761053141746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>750775.5176332723</v>
+        <v>879026.8400527071</v>
       </c>
     </row>
     <row r="3">
@@ -46770,28 +46770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.2968782929847</v>
+        <v>548.9596724010597</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.7444486806374</v>
+        <v>751.1108421706289</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.5926977890384</v>
+        <v>679.4258775845512</v>
       </c>
       <c r="AD3" t="n">
-        <v>468296.8782929847</v>
+        <v>548959.6724010598</v>
       </c>
       <c r="AE3" t="n">
-        <v>640744.4486806374</v>
+        <v>751110.8421706288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162688955070353e-06</v>
+        <v>2.256288833763338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78255208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>579592.6977890384</v>
+        <v>679425.8775845512</v>
       </c>
     </row>
     <row r="4">
@@ -46876,28 +46876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.625588848548</v>
+        <v>508.2030421020514</v>
       </c>
       <c r="AB4" t="n">
-        <v>585.0961961721035</v>
+        <v>695.3458225398973</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.255436397106</v>
+        <v>628.9829931606801</v>
       </c>
       <c r="AD4" t="n">
-        <v>427625.588848548</v>
+        <v>508203.0421020514</v>
       </c>
       <c r="AE4" t="n">
-        <v>585096.1961721035</v>
+        <v>695345.8225398973</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234995420885281e-06</v>
+        <v>2.396605184680461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.97526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>529255.436397106</v>
+        <v>628982.9931606801</v>
       </c>
     </row>
     <row r="5">
@@ -46982,28 +46982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.7718031636625</v>
+        <v>493.349256417166</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.7725912952678</v>
+        <v>675.0222176630616</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.8714878453569</v>
+        <v>610.599044608931</v>
       </c>
       <c r="AD5" t="n">
-        <v>412771.8031636626</v>
+        <v>493349.256417166</v>
       </c>
       <c r="AE5" t="n">
-        <v>564772.5912952678</v>
+        <v>675022.2176630616</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.272835066087033e-06</v>
+        <v>2.470035975065077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>510871.4878453569</v>
+        <v>610599.0446089309</v>
       </c>
     </row>
     <row r="6">
@@ -47088,28 +47088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.5063470275185</v>
+        <v>472.5606334884195</v>
       </c>
       <c r="AB6" t="n">
-        <v>552.0951854467197</v>
+        <v>646.5783066426346</v>
       </c>
       <c r="AC6" t="n">
-        <v>499.4039958181436</v>
+        <v>584.8697805350137</v>
       </c>
       <c r="AD6" t="n">
-        <v>403506.3470275186</v>
+        <v>472560.6334884195</v>
       </c>
       <c r="AE6" t="n">
-        <v>552095.1854467198</v>
+        <v>646578.3066426347</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296026312528185e-06</v>
+        <v>2.515040402223377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>499403.9958181436</v>
+        <v>584869.7805350136</v>
       </c>
     </row>
     <row r="7">
@@ -47194,28 +47194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>395.648712935572</v>
+        <v>464.7029993964729</v>
       </c>
       <c r="AB7" t="n">
-        <v>541.3440238277682</v>
+        <v>635.8271450236829</v>
       </c>
       <c r="AC7" t="n">
-        <v>489.6789099747544</v>
+        <v>575.1446946916247</v>
       </c>
       <c r="AD7" t="n">
-        <v>395648.712935572</v>
+        <v>464702.9993964729</v>
       </c>
       <c r="AE7" t="n">
-        <v>541344.0238277682</v>
+        <v>635827.1450236829</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.314022916719779e-06</v>
+        <v>2.549964219901421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>489678.9099747544</v>
+        <v>575144.6946916247</v>
       </c>
     </row>
     <row r="8">
@@ -47300,28 +47300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>390.5299528029476</v>
+        <v>459.5842392638485</v>
       </c>
       <c r="AB8" t="n">
-        <v>534.3403103905522</v>
+        <v>628.823431586467</v>
       </c>
       <c r="AC8" t="n">
-        <v>483.3436211182128</v>
+        <v>568.809405835083</v>
       </c>
       <c r="AD8" t="n">
-        <v>390529.9528029476</v>
+        <v>459584.2392638485</v>
       </c>
       <c r="AE8" t="n">
-        <v>534340.3103905522</v>
+        <v>628823.431586467</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323501292388403e-06</v>
+        <v>2.568357749047861e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>483343.6211182128</v>
+        <v>568809.405835083</v>
       </c>
     </row>
     <row r="9">
@@ -47406,28 +47406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>384.7994431745386</v>
+        <v>453.8537296354394</v>
       </c>
       <c r="AB9" t="n">
-        <v>526.4995743047206</v>
+        <v>620.9826955006355</v>
       </c>
       <c r="AC9" t="n">
-        <v>476.2511938798709</v>
+        <v>561.7169785967411</v>
       </c>
       <c r="AD9" t="n">
-        <v>384799.4431745386</v>
+        <v>453853.7296354395</v>
       </c>
       <c r="AE9" t="n">
-        <v>526499.5743047206</v>
+        <v>620982.6955006355</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.334875343190751e-06</v>
+        <v>2.590429984023588e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>476251.1938798709</v>
+        <v>561716.9785967411</v>
       </c>
     </row>
     <row r="10">
@@ -47512,28 +47512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>368.3045784445982</v>
+        <v>448.79669084353</v>
       </c>
       <c r="AB10" t="n">
-        <v>503.9305726791431</v>
+        <v>614.0634319247392</v>
       </c>
       <c r="AC10" t="n">
-        <v>455.8361460936458</v>
+        <v>555.4580798252809</v>
       </c>
       <c r="AD10" t="n">
-        <v>368304.5784445982</v>
+        <v>448796.69084353</v>
       </c>
       <c r="AE10" t="n">
-        <v>503930.5726791431</v>
+        <v>614063.4319247393</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341965660574033e-06</v>
+        <v>2.604189299333132e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>455836.1460936458</v>
+        <v>555458.0798252809</v>
       </c>
     </row>
     <row r="11">
@@ -47618,28 +47618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>365.3851754257577</v>
+        <v>445.8772878246895</v>
       </c>
       <c r="AB11" t="n">
-        <v>499.9361166737942</v>
+        <v>610.0689759193904</v>
       </c>
       <c r="AC11" t="n">
-        <v>452.2229153631931</v>
+        <v>551.8448490948283</v>
       </c>
       <c r="AD11" t="n">
-        <v>365385.1754257577</v>
+        <v>445877.2878246895</v>
       </c>
       <c r="AE11" t="n">
-        <v>499936.1166737942</v>
+        <v>610068.9759193903</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345436961792931e-06</v>
+        <v>2.610925630786763e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>452222.9153631931</v>
+        <v>551844.8490948284</v>
       </c>
     </row>
     <row r="12">
@@ -47724,28 +47724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>361.868008768567</v>
+        <v>442.3601211674988</v>
       </c>
       <c r="AB12" t="n">
-        <v>495.1237740869841</v>
+        <v>605.2566333325802</v>
       </c>
       <c r="AC12" t="n">
-        <v>447.869855998703</v>
+        <v>547.4917897303382</v>
       </c>
       <c r="AD12" t="n">
-        <v>361868.008768567</v>
+        <v>442360.1211674988</v>
       </c>
       <c r="AE12" t="n">
-        <v>495123.7740869841</v>
+        <v>605256.6333325802</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.34745573271456e-06</v>
+        <v>2.614843213617953e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH12" t="n">
-        <v>447869.855998703</v>
+        <v>547491.7897303381</v>
       </c>
     </row>
     <row r="13">
@@ -47830,28 +47830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>356.9351166963544</v>
+        <v>426.074654503276</v>
       </c>
       <c r="AB13" t="n">
-        <v>488.3743735299439</v>
+        <v>582.974139378508</v>
       </c>
       <c r="AC13" t="n">
-        <v>441.7646087579834</v>
+        <v>527.335905725566</v>
       </c>
       <c r="AD13" t="n">
-        <v>356935.1166963545</v>
+        <v>426074.654503276</v>
       </c>
       <c r="AE13" t="n">
-        <v>488374.3735299439</v>
+        <v>582974.139378508</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.353068900642992e-06</v>
+        <v>2.625736004904676e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.84895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>441764.6087579834</v>
+        <v>527335.905725566</v>
       </c>
     </row>
     <row r="14">
@@ -47936,28 +47936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>354.0034382936352</v>
+        <v>423.1429761005567</v>
       </c>
       <c r="AB14" t="n">
-        <v>484.3631218028203</v>
+        <v>578.9628876513843</v>
       </c>
       <c r="AC14" t="n">
-        <v>438.1361852658694</v>
+        <v>523.7074822334517</v>
       </c>
       <c r="AD14" t="n">
-        <v>354003.4382936351</v>
+        <v>423142.9761005567</v>
       </c>
       <c r="AE14" t="n">
-        <v>484363.1218028203</v>
+        <v>578962.8876513843</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.356515582704309e-06</v>
+        <v>2.632424560957925e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.81640625</v>
       </c>
       <c r="AH14" t="n">
-        <v>438136.1852658694</v>
+        <v>523707.4822334518</v>
       </c>
     </row>
     <row r="15">
@@ -48042,28 +48042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>351.8628950101626</v>
+        <v>421.0024328170841</v>
       </c>
       <c r="AB15" t="n">
-        <v>481.4343360482682</v>
+        <v>576.0341018968322</v>
       </c>
       <c r="AC15" t="n">
-        <v>435.4869187131551</v>
+        <v>521.0582156807376</v>
       </c>
       <c r="AD15" t="n">
-        <v>351862.8950101626</v>
+        <v>421002.4328170841</v>
       </c>
       <c r="AE15" t="n">
-        <v>481434.3360482682</v>
+        <v>576034.1018968322</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.359100594250298e-06</v>
+        <v>2.637440977997864e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.79036458333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>435486.9187131551</v>
+        <v>521058.2156807376</v>
       </c>
     </row>
   </sheetData>
@@ -48339,28 +48339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>765.4744190084422</v>
+        <v>873.270643999542</v>
       </c>
       <c r="AB2" t="n">
-        <v>1047.355870435327</v>
+        <v>1194.84742110196</v>
       </c>
       <c r="AC2" t="n">
-        <v>947.3976961341748</v>
+        <v>1080.812860210876</v>
       </c>
       <c r="AD2" t="n">
-        <v>765474.4190084422</v>
+        <v>873270.643999542</v>
       </c>
       <c r="AE2" t="n">
-        <v>1047355.870435327</v>
+        <v>1194847.42110196</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.37284202850044e-07</v>
+        <v>1.571073571896821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>947397.6961341748</v>
+        <v>1080812.860210876</v>
       </c>
     </row>
     <row r="3">
@@ -48445,28 +48445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.3887853828655</v>
+        <v>654.1980901612898</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.0121705354417</v>
+        <v>895.1026881414953</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.0959212773545</v>
+        <v>809.6753438697833</v>
       </c>
       <c r="AD3" t="n">
-        <v>558388.7853828656</v>
+        <v>654198.0901612898</v>
       </c>
       <c r="AE3" t="n">
-        <v>764012.1705354417</v>
+        <v>895102.6881414952</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053621568497327e-06</v>
+        <v>1.977007323692562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>691095.9212773545</v>
+        <v>809675.3438697833</v>
       </c>
     </row>
     <row r="4">
@@ -48551,28 +48551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.1991964495288</v>
+        <v>588.1070113784001</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.8675842809121</v>
+        <v>804.6739584181319</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.0275902723768</v>
+        <v>727.8770051936984</v>
       </c>
       <c r="AD4" t="n">
-        <v>504199.1964495288</v>
+        <v>588107.0113784001</v>
       </c>
       <c r="AE4" t="n">
-        <v>689867.5842809121</v>
+        <v>804673.9584181318</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.137034462193548e-06</v>
+        <v>2.133522629242932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>624027.5902723768</v>
+        <v>727877.0051936985</v>
       </c>
     </row>
     <row r="5">
@@ -48657,28 +48657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>484.9864358033384</v>
+        <v>556.9075095366363</v>
       </c>
       <c r="AB5" t="n">
-        <v>663.5798375576157</v>
+        <v>761.9854235733524</v>
       </c>
       <c r="AC5" t="n">
-        <v>600.2487092012675</v>
+        <v>689.2626042007699</v>
       </c>
       <c r="AD5" t="n">
-        <v>484986.4358033384</v>
+        <v>556907.5095366363</v>
       </c>
       <c r="AE5" t="n">
-        <v>663579.8375576157</v>
+        <v>761985.4235733524</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180045718243392e-06</v>
+        <v>2.214228615864895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.0859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>600248.7092012675</v>
+        <v>689262.6042007699</v>
       </c>
     </row>
     <row r="6">
@@ -48763,28 +48763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>458.6822107683872</v>
+        <v>542.5046848426869</v>
       </c>
       <c r="AB6" t="n">
-        <v>627.589236404288</v>
+        <v>742.2788434193103</v>
       </c>
       <c r="AC6" t="n">
-        <v>567.6930005088876</v>
+        <v>671.4367923982704</v>
       </c>
       <c r="AD6" t="n">
-        <v>458682.2107683872</v>
+        <v>542504.6848426869</v>
       </c>
       <c r="AE6" t="n">
-        <v>627589.2364042881</v>
+        <v>742278.8434193103</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.212262643624356e-06</v>
+        <v>2.274680204299879e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.74088541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>567693.0005088876</v>
+        <v>671436.7923982705</v>
       </c>
     </row>
     <row r="7">
@@ -48869,28 +48869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.3673027841111</v>
+        <v>535.1897768584108</v>
       </c>
       <c r="AB7" t="n">
-        <v>617.5806565892373</v>
+        <v>732.2702636042593</v>
       </c>
       <c r="AC7" t="n">
-        <v>558.6396255042552</v>
+        <v>662.3834173936381</v>
       </c>
       <c r="AD7" t="n">
-        <v>451367.3027841111</v>
+        <v>535189.7768584108</v>
       </c>
       <c r="AE7" t="n">
-        <v>617580.6565892373</v>
+        <v>732270.2636042594</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.228323658707502e-06</v>
+        <v>2.30481696819567e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.57161458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>558639.6255042552</v>
+        <v>662383.4173936381</v>
       </c>
     </row>
     <row r="8">
@@ -48975,28 +48975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>444.6275792653067</v>
+        <v>516.463312144033</v>
       </c>
       <c r="AB8" t="n">
-        <v>608.3590695351924</v>
+        <v>706.6478884287316</v>
       </c>
       <c r="AC8" t="n">
-        <v>550.2981337760696</v>
+        <v>639.206405743633</v>
       </c>
       <c r="AD8" t="n">
-        <v>444627.5792653068</v>
+        <v>516463.312144033</v>
       </c>
       <c r="AE8" t="n">
-        <v>608359.0695351923</v>
+        <v>706647.8884287316</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.242795178944901e-06</v>
+        <v>2.331971216314477e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.42838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>550298.1337760696</v>
+        <v>639206.405743633</v>
       </c>
     </row>
     <row r="9">
@@ -49081,28 +49081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>438.7219425819097</v>
+        <v>510.557675460636</v>
       </c>
       <c r="AB9" t="n">
-        <v>600.278716886666</v>
+        <v>698.5675357802052</v>
       </c>
       <c r="AC9" t="n">
-        <v>542.9889586434723</v>
+        <v>631.8972306110358</v>
       </c>
       <c r="AD9" t="n">
-        <v>438721.9425819097</v>
+        <v>510557.675460636</v>
       </c>
       <c r="AE9" t="n">
-        <v>600278.7168866659</v>
+        <v>698567.5357802052</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.254728252189839e-06</v>
+        <v>2.35436234222228e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.31119791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>542988.9586434723</v>
+        <v>631897.2306110357</v>
       </c>
     </row>
     <row r="10">
@@ -49187,28 +49187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>434.6637409662285</v>
+        <v>506.4994738449548</v>
       </c>
       <c r="AB10" t="n">
-        <v>594.7261064008712</v>
+        <v>693.0149252944103</v>
       </c>
       <c r="AC10" t="n">
-        <v>537.9662815093042</v>
+        <v>626.8745534768676</v>
       </c>
       <c r="AD10" t="n">
-        <v>434663.7409662285</v>
+        <v>506499.4738449547</v>
       </c>
       <c r="AE10" t="n">
-        <v>594726.1064008712</v>
+        <v>693014.9252944103</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.261726774271859e-06</v>
+        <v>2.367494314673179e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>537966.2815093042</v>
+        <v>626874.5534768676</v>
       </c>
     </row>
     <row r="11">
@@ -49293,28 +49293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>430.5134441756137</v>
+        <v>502.34917705434</v>
       </c>
       <c r="AB11" t="n">
-        <v>589.0474872337801</v>
+        <v>687.3363061273193</v>
       </c>
       <c r="AC11" t="n">
-        <v>532.8296217855282</v>
+        <v>621.7378937530916</v>
       </c>
       <c r="AD11" t="n">
-        <v>430513.4441756137</v>
+        <v>502349.17705434</v>
       </c>
       <c r="AE11" t="n">
-        <v>589047.4872337801</v>
+        <v>687336.3061273193</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.26806102985118e-06</v>
+        <v>2.379379862620264e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>532829.6217855281</v>
+        <v>621737.8937530916</v>
       </c>
     </row>
     <row r="12">
@@ -49399,28 +49399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>427.2471278389772</v>
+        <v>499.0828607177035</v>
       </c>
       <c r="AB12" t="n">
-        <v>584.5783691222874</v>
+        <v>682.8671880158265</v>
       </c>
       <c r="AC12" t="n">
-        <v>528.7870300341496</v>
+        <v>617.6953020017131</v>
       </c>
       <c r="AD12" t="n">
-        <v>427247.1278389772</v>
+        <v>499082.8607177035</v>
       </c>
       <c r="AE12" t="n">
-        <v>584578.3691222874</v>
+        <v>682867.1880158265</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.2737310189278e-06</v>
+        <v>2.390018986063534e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>528787.0300341495</v>
+        <v>617695.3020017131</v>
       </c>
     </row>
     <row r="13">
@@ -49505,28 +49505,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>424.3030652433712</v>
+        <v>496.1387981220974</v>
       </c>
       <c r="AB13" t="n">
-        <v>580.5501727961041</v>
+        <v>678.8389916896433</v>
       </c>
       <c r="AC13" t="n">
-        <v>525.1432791117281</v>
+        <v>614.0515510792916</v>
       </c>
       <c r="AD13" t="n">
-        <v>424303.0652433712</v>
+        <v>496138.7981220974</v>
       </c>
       <c r="AE13" t="n">
-        <v>580550.1727961041</v>
+        <v>678838.9916896434</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277147246655973e-06</v>
+        <v>2.396429169226006e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>525143.2791117282</v>
+        <v>614051.5510792916</v>
       </c>
     </row>
     <row r="14">
@@ -49611,28 +49611,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>421.452667157325</v>
+        <v>493.2884000360513</v>
       </c>
       <c r="AB14" t="n">
-        <v>576.6501323840872</v>
+        <v>674.9389512776263</v>
       </c>
       <c r="AC14" t="n">
-        <v>521.6154530828931</v>
+        <v>610.5237250504565</v>
       </c>
       <c r="AD14" t="n">
-        <v>421452.667157325</v>
+        <v>493288.4000360513</v>
       </c>
       <c r="AE14" t="n">
-        <v>576650.1323840872</v>
+        <v>674938.9512776263</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.280041550703453e-06</v>
+        <v>2.401860018849768e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>521615.453082893</v>
+        <v>610523.7250504565</v>
       </c>
     </row>
     <row r="15">
@@ -49717,28 +49717,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>417.9261975772055</v>
+        <v>489.7619304559317</v>
       </c>
       <c r="AB15" t="n">
-        <v>571.8250611277099</v>
+        <v>670.113880021249</v>
       </c>
       <c r="AC15" t="n">
-        <v>517.2508798551944</v>
+        <v>606.1591518227577</v>
       </c>
       <c r="AD15" t="n">
-        <v>417926.1975772055</v>
+        <v>489761.9304559317</v>
       </c>
       <c r="AE15" t="n">
-        <v>571825.0611277099</v>
+        <v>670113.8800212489</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.284667692418687e-06</v>
+        <v>2.410540475215616e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>517250.8798551944</v>
+        <v>606159.1518227578</v>
       </c>
     </row>
     <row r="16">
@@ -49823,28 +49823,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>402.5813225881002</v>
+        <v>486.3184558078282</v>
       </c>
       <c r="AB16" t="n">
-        <v>550.8295261995095</v>
+        <v>665.4023660923339</v>
       </c>
       <c r="AC16" t="n">
-        <v>498.2591293131231</v>
+        <v>601.8972981705672</v>
       </c>
       <c r="AD16" t="n">
-        <v>402581.3225881002</v>
+        <v>486318.4558078282</v>
       </c>
       <c r="AE16" t="n">
-        <v>550829.5261995095</v>
+        <v>665402.3660923339</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288273710576203e-06</v>
+        <v>2.417306779664892e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH16" t="n">
-        <v>498259.1293131231</v>
+        <v>601897.2981705671</v>
       </c>
     </row>
     <row r="17">
@@ -49929,28 +49929,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>400.211580444364</v>
+        <v>483.9487136640921</v>
       </c>
       <c r="AB17" t="n">
-        <v>547.5871404528048</v>
+        <v>662.1599803456292</v>
       </c>
       <c r="AC17" t="n">
-        <v>495.3261923113668</v>
+        <v>598.9643611688109</v>
       </c>
       <c r="AD17" t="n">
-        <v>400211.580444364</v>
+        <v>483948.7136640921</v>
       </c>
       <c r="AE17" t="n">
-        <v>547587.1404528047</v>
+        <v>662159.9803456292</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.288297434379871e-06</v>
+        <v>2.417351294825743e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.98567708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>495326.1923113668</v>
+        <v>598964.3611688109</v>
       </c>
     </row>
     <row r="18">
@@ -50035,28 +50035,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>397.9782244612293</v>
+        <v>481.7153576809573</v>
       </c>
       <c r="AB18" t="n">
-        <v>544.5313642679677</v>
+        <v>659.1042041607921</v>
       </c>
       <c r="AC18" t="n">
-        <v>492.5620551168017</v>
+        <v>596.2002239742458</v>
       </c>
       <c r="AD18" t="n">
-        <v>397978.2244612293</v>
+        <v>481715.3576809572</v>
       </c>
       <c r="AE18" t="n">
-        <v>544531.3642679676</v>
+        <v>659104.2041607921</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.292235585788737e-06</v>
+        <v>2.424740811526927e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH18" t="n">
-        <v>492562.0551168018</v>
+        <v>596200.2239742457</v>
       </c>
     </row>
     <row r="19">
@@ -50141,28 +50141,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>395.0226918142018</v>
+        <v>478.7598250339298</v>
       </c>
       <c r="AB19" t="n">
-        <v>540.4874741114066</v>
+        <v>655.060314004231</v>
       </c>
       <c r="AC19" t="n">
-        <v>488.9041081611475</v>
+        <v>592.5422770185914</v>
       </c>
       <c r="AD19" t="n">
-        <v>395022.6918142018</v>
+        <v>478759.8250339298</v>
       </c>
       <c r="AE19" t="n">
-        <v>540487.4741114066</v>
+        <v>655060.314004231</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.291476424071365e-06</v>
+        <v>2.423316326379711e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>488904.1081611475</v>
+        <v>592542.2770185914</v>
       </c>
     </row>
     <row r="20">
@@ -50247,28 +50247,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>392.61849791226</v>
+        <v>476.3556311319881</v>
       </c>
       <c r="AB20" t="n">
-        <v>537.1979499492207</v>
+        <v>651.7707898420451</v>
       </c>
       <c r="AC20" t="n">
-        <v>485.9285315681244</v>
+        <v>589.5667004255685</v>
       </c>
       <c r="AD20" t="n">
-        <v>392618.49791226</v>
+        <v>476355.6311319881</v>
       </c>
       <c r="AE20" t="n">
-        <v>537197.9499492208</v>
+        <v>651770.7898420452</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.296577041859957e-06</v>
+        <v>2.432887085962569e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH20" t="n">
-        <v>485928.5315681244</v>
+        <v>589566.7004255685</v>
       </c>
     </row>
     <row r="21">
@@ -50353,28 +50353,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>389.9051446996069</v>
+        <v>473.642277919335</v>
       </c>
       <c r="AB21" t="n">
-        <v>533.4854203789733</v>
+        <v>648.0582602717977</v>
       </c>
       <c r="AC21" t="n">
-        <v>482.5703206094934</v>
+        <v>586.2084894669375</v>
       </c>
       <c r="AD21" t="n">
-        <v>389905.1446996069</v>
+        <v>473642.2779193349</v>
       </c>
       <c r="AE21" t="n">
-        <v>533485.4203789734</v>
+        <v>648058.2602717978</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.296102565786599e-06</v>
+        <v>2.431996782745559e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH21" t="n">
-        <v>482570.3206094934</v>
+        <v>586208.4894669375</v>
       </c>
     </row>
     <row r="22">
@@ -50459,28 +50459,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>390.0734427673306</v>
+        <v>473.8105759870586</v>
       </c>
       <c r="AB22" t="n">
-        <v>533.7156932200196</v>
+        <v>648.288533112844</v>
       </c>
       <c r="AC22" t="n">
-        <v>482.7786165337802</v>
+        <v>586.4167853912242</v>
       </c>
       <c r="AD22" t="n">
-        <v>390073.4427673306</v>
+        <v>473810.5759870586</v>
       </c>
       <c r="AE22" t="n">
-        <v>533715.6932200196</v>
+        <v>648288.533112844</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.296055118179264e-06</v>
+        <v>2.431907752423858e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH22" t="n">
-        <v>482778.6165337802</v>
+        <v>586416.7853912242</v>
       </c>
     </row>
   </sheetData>
@@ -50756,28 +50756,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8669314906969</v>
+        <v>258.7428379240791</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.9397296396972</v>
+        <v>354.0233657761101</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.3181133373357</v>
+        <v>320.2358726213519</v>
       </c>
       <c r="AD2" t="n">
-        <v>203866.9314906969</v>
+        <v>258742.8379240791</v>
       </c>
       <c r="AE2" t="n">
-        <v>278939.7296396972</v>
+        <v>354023.3657761101</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.612831490197405e-06</v>
+        <v>4.033569159957264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.3046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>252318.1133373358</v>
+        <v>320235.8726213519</v>
       </c>
     </row>
   </sheetData>
@@ -51053,28 +51053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.6450921092249</v>
+        <v>512.2574695836047</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.4370784457622</v>
+        <v>700.8932690888751</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.4185221871039</v>
+        <v>634.0009991969137</v>
       </c>
       <c r="AD2" t="n">
-        <v>436645.0921092249</v>
+        <v>512257.4695836047</v>
       </c>
       <c r="AE2" t="n">
-        <v>597437.0784457622</v>
+        <v>700893.269088875</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173093109724562e-06</v>
+        <v>2.415731235689362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>540418.5221871039</v>
+        <v>634000.9991969137</v>
       </c>
     </row>
     <row r="3">
@@ -51159,28 +51159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.100459323373</v>
+        <v>436.7127472892019</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.073579074178</v>
+        <v>597.5296472477427</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.9198901239611</v>
+        <v>540.5022563525444</v>
       </c>
       <c r="AD3" t="n">
-        <v>361100.459323373</v>
+        <v>436712.7472892019</v>
       </c>
       <c r="AE3" t="n">
-        <v>494073.579074178</v>
+        <v>597529.6472477426</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330958238883006e-06</v>
+        <v>2.740820284779191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.77994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>446919.8901239611</v>
+        <v>540502.2563525443</v>
       </c>
     </row>
     <row r="4">
@@ -51265,28 +51265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.4275257338838</v>
+        <v>408.2259562339208</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.8926916622357</v>
+        <v>558.5527629773825</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.0467926685259</v>
+        <v>505.2452712125469</v>
       </c>
       <c r="AD4" t="n">
-        <v>343427.5257338838</v>
+        <v>408225.9562339208</v>
       </c>
       <c r="AE4" t="n">
-        <v>469892.6916622357</v>
+        <v>558552.7629773825</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386558535945099e-06</v>
+        <v>2.855317056785672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>425046.7926685259</v>
+        <v>505245.2712125469</v>
       </c>
     </row>
     <row r="5">
@@ -51371,28 +51371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>332.9324374088588</v>
+        <v>397.7308679088958</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.5328488053172</v>
+        <v>544.192920120464</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.0574330597058</v>
+        <v>492.2559116037267</v>
       </c>
       <c r="AD5" t="n">
-        <v>332932.4374088589</v>
+        <v>397730.8679088958</v>
       </c>
       <c r="AE5" t="n">
-        <v>455532.8488053172</v>
+        <v>544192.9201204641</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.416501177126095e-06</v>
+        <v>2.916977442462094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.01171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>412057.4330597058</v>
+        <v>492255.9116037267</v>
       </c>
     </row>
     <row r="6">
@@ -51477,28 +51477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>314.572773283126</v>
+        <v>379.4564551291835</v>
       </c>
       <c r="AB6" t="n">
-        <v>430.4123463772731</v>
+        <v>519.1890623450694</v>
       </c>
       <c r="AC6" t="n">
-        <v>389.3343961265476</v>
+        <v>469.6383869212808</v>
       </c>
       <c r="AD6" t="n">
-        <v>314572.7732831259</v>
+        <v>379456.4551291835</v>
       </c>
       <c r="AE6" t="n">
-        <v>430412.3463772731</v>
+        <v>519189.0623450694</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.432987919347044e-06</v>
+        <v>2.95092831799597e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.86848958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>389334.3961265476</v>
+        <v>469638.3869212808</v>
       </c>
     </row>
     <row r="7">
@@ -51583,28 +51583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.8718163134563</v>
+        <v>372.7554981595138</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.2438014260138</v>
+        <v>510.02051739381</v>
       </c>
       <c r="AC7" t="n">
-        <v>381.0408842373028</v>
+        <v>461.3448750320359</v>
       </c>
       <c r="AD7" t="n">
-        <v>307871.8163134563</v>
+        <v>372755.4981595138</v>
       </c>
       <c r="AE7" t="n">
-        <v>421243.8014260138</v>
+        <v>510020.51739381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.445477083818699e-06</v>
+        <v>2.976647047798178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>381040.8842373028</v>
+        <v>461344.8750320359</v>
       </c>
     </row>
     <row r="8">
@@ -51689,28 +51689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>302.8244287606094</v>
+        <v>367.708110606667</v>
       </c>
       <c r="AB8" t="n">
-        <v>414.3377431011855</v>
+        <v>503.1144590689817</v>
       </c>
       <c r="AC8" t="n">
-        <v>374.7939304262824</v>
+        <v>455.0979212210155</v>
       </c>
       <c r="AD8" t="n">
-        <v>302824.4287606094</v>
+        <v>367708.110606667</v>
       </c>
       <c r="AE8" t="n">
-        <v>414337.7431011855</v>
+        <v>503114.4590689817</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452009073605129e-06</v>
+        <v>2.990098266313977e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>374793.9304262824</v>
+        <v>455097.9212210155</v>
       </c>
     </row>
     <row r="9">
@@ -51795,28 +51795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>303.4690816853313</v>
+        <v>368.352763531389</v>
       </c>
       <c r="AB9" t="n">
-        <v>415.2197856728699</v>
+        <v>503.9965016406661</v>
       </c>
       <c r="AC9" t="n">
-        <v>375.5917920928798</v>
+        <v>455.8957828876129</v>
       </c>
       <c r="AD9" t="n">
-        <v>303469.0816853314</v>
+        <v>368352.7635313889</v>
       </c>
       <c r="AE9" t="n">
-        <v>415219.7856728699</v>
+        <v>503996.501640666</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.451773921972818e-06</v>
+        <v>2.989614022447408e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH9" t="n">
-        <v>375591.7920928798</v>
+        <v>455895.7828876129</v>
       </c>
     </row>
   </sheetData>
@@ -52092,28 +52092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.3236306237054</v>
+        <v>624.4140892538938</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.0851641142606</v>
+        <v>854.3509041226122</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.3114221356669</v>
+        <v>772.8128529221741</v>
       </c>
       <c r="AD2" t="n">
-        <v>534323.6306237055</v>
+        <v>624414.0892538938</v>
       </c>
       <c r="AE2" t="n">
-        <v>731085.1641142606</v>
+        <v>854350.9041226122</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042021424396995e-06</v>
+        <v>2.064436290152638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661311.4221356669</v>
+        <v>772812.8529221741</v>
       </c>
     </row>
     <row r="3">
@@ -52198,28 +52198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.6499059994414</v>
+        <v>509.308465100264</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.2342003214119</v>
+        <v>696.8583110538726</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.9985152381298</v>
+        <v>630.3511318936725</v>
       </c>
       <c r="AD3" t="n">
-        <v>430649.9059994414</v>
+        <v>509308.465100264</v>
       </c>
       <c r="AE3" t="n">
-        <v>589234.2003214119</v>
+        <v>696858.3110538726</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223217386059153e-06</v>
+        <v>2.423418850516914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.39192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>532998.5152381298</v>
+        <v>630351.1318936725</v>
       </c>
     </row>
     <row r="4">
@@ -52304,28 +52304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.2108327470484</v>
+        <v>473.9546431938916</v>
       </c>
       <c r="AB4" t="n">
-        <v>540.7448968359197</v>
+        <v>648.4856522210296</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.1369628221279</v>
+        <v>586.595091728383</v>
       </c>
       <c r="AD4" t="n">
-        <v>395210.8327470484</v>
+        <v>473954.6431938916</v>
       </c>
       <c r="AE4" t="n">
-        <v>540744.8968359197</v>
+        <v>648485.6522210296</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.289552767275745e-06</v>
+        <v>2.554841453832283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>489136.9628221279</v>
+        <v>586595.091728383</v>
       </c>
     </row>
     <row r="5">
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.5328551148662</v>
+        <v>450.0154477414869</v>
       </c>
       <c r="AB5" t="n">
-        <v>523.3983285266692</v>
+        <v>615.7309888802836</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.4459266462508</v>
+        <v>556.9664874854191</v>
       </c>
       <c r="AD5" t="n">
-        <v>382532.8551148662</v>
+        <v>450015.4477414869</v>
       </c>
       <c r="AE5" t="n">
-        <v>523398.3285266691</v>
+        <v>615730.9888802835</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323915350037165e-06</v>
+        <v>2.622920056839031e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>473445.9266462508</v>
+        <v>556966.487485419</v>
       </c>
     </row>
     <row r="6">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>373.0111961621296</v>
+        <v>440.4937887887504</v>
       </c>
       <c r="AB6" t="n">
-        <v>510.3703746815887</v>
+        <v>602.7030350352032</v>
       </c>
       <c r="AC6" t="n">
-        <v>461.6613424312969</v>
+        <v>545.181903270465</v>
       </c>
       <c r="AD6" t="n">
-        <v>373011.1961621296</v>
+        <v>440493.7887887504</v>
       </c>
       <c r="AE6" t="n">
-        <v>510370.3746815887</v>
+        <v>602703.0350352032</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.348366616833724e-06</v>
+        <v>2.671362518129337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>461661.3424312969</v>
+        <v>545181.903270465</v>
       </c>
     </row>
     <row r="7">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>367.172996990254</v>
+        <v>434.6555896168747</v>
       </c>
       <c r="AB7" t="n">
-        <v>502.3822930114589</v>
+        <v>594.7149533650733</v>
       </c>
       <c r="AC7" t="n">
-        <v>454.4356320644212</v>
+        <v>537.9561929035893</v>
       </c>
       <c r="AD7" t="n">
-        <v>367172.996990254</v>
+        <v>434655.5896168748</v>
       </c>
       <c r="AE7" t="n">
-        <v>502382.2930114589</v>
+        <v>594714.9533650733</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360340693989241e-06</v>
+        <v>2.695085369543109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03776041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>454435.6320644212</v>
+        <v>537956.1929035893</v>
       </c>
     </row>
     <row r="8">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>350.1660832910577</v>
+        <v>428.8245528833294</v>
       </c>
       <c r="AB8" t="n">
-        <v>479.1126833961391</v>
+        <v>586.7366716590515</v>
       </c>
       <c r="AC8" t="n">
-        <v>433.3868413316854</v>
+        <v>530.7393472060015</v>
       </c>
       <c r="AD8" t="n">
-        <v>350166.0832910577</v>
+        <v>428824.5528833294</v>
       </c>
       <c r="AE8" t="n">
-        <v>479112.6833961391</v>
+        <v>586736.6716590514</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.370729966815351e-06</v>
+        <v>2.715668431799175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>433386.8413316854</v>
+        <v>530739.3472060015</v>
       </c>
     </row>
     <row r="9">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>345.3120616508555</v>
+        <v>423.9705312431271</v>
       </c>
       <c r="AB9" t="n">
-        <v>472.4711968436933</v>
+        <v>580.0951851066055</v>
       </c>
       <c r="AC9" t="n">
-        <v>427.3792089344199</v>
+        <v>524.7317148087361</v>
       </c>
       <c r="AD9" t="n">
-        <v>345312.0616508555</v>
+        <v>423970.5312431271</v>
       </c>
       <c r="AE9" t="n">
-        <v>472471.1968436933</v>
+        <v>580095.1851066055</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.377698074739885e-06</v>
+        <v>2.72947353650845e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>427379.2089344199</v>
+        <v>524731.7148087361</v>
       </c>
     </row>
     <row r="10">
@@ -52940,28 +52940,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>340.5477622451255</v>
+        <v>408.1156062177668</v>
       </c>
       <c r="AB10" t="n">
-        <v>465.9524722107178</v>
+        <v>558.4017772169814</v>
       </c>
       <c r="AC10" t="n">
-        <v>421.4826222313281</v>
+        <v>505.1086953212086</v>
       </c>
       <c r="AD10" t="n">
-        <v>340547.7622451254</v>
+        <v>408115.6062177668</v>
       </c>
       <c r="AE10" t="n">
-        <v>465952.4722107178</v>
+        <v>558401.7772169814</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.384917738907181e-06</v>
+        <v>2.743777020449106e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>421482.6222313281</v>
+        <v>505108.6953212086</v>
       </c>
     </row>
     <row r="11">
@@ -53046,28 +53046,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>335.7356978246438</v>
+        <v>403.3035417972852</v>
       </c>
       <c r="AB11" t="n">
-        <v>459.3683933773155</v>
+        <v>551.8176983835792</v>
       </c>
       <c r="AC11" t="n">
-        <v>415.5269186409731</v>
+        <v>499.1529917308536</v>
       </c>
       <c r="AD11" t="n">
-        <v>335735.6978246438</v>
+        <v>403303.5417972851</v>
       </c>
       <c r="AE11" t="n">
-        <v>459368.3933773155</v>
+        <v>551817.6983835793</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387609390704745e-06</v>
+        <v>2.749109678224891e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.80338541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>415526.9186409731</v>
+        <v>499152.9917308536</v>
       </c>
     </row>
     <row r="12">
@@ -53152,28 +53152,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>333.4527468867287</v>
+        <v>401.0205908593701</v>
       </c>
       <c r="AB12" t="n">
-        <v>456.2447591873731</v>
+        <v>548.6940641936367</v>
       </c>
       <c r="AC12" t="n">
-        <v>412.7013997140705</v>
+        <v>496.327472803951</v>
       </c>
       <c r="AD12" t="n">
-        <v>333452.7468867287</v>
+        <v>401020.5908593701</v>
       </c>
       <c r="AE12" t="n">
-        <v>456244.759187373</v>
+        <v>548694.0641936366</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.390653221242177e-06</v>
+        <v>2.75514006692461e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.77734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>412701.3997140705</v>
+        <v>496327.472803951</v>
       </c>
     </row>
     <row r="13">
@@ -53258,28 +53258,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>334.0764781293457</v>
+        <v>401.644322101987</v>
       </c>
       <c r="AB13" t="n">
-        <v>457.0981757906018</v>
+        <v>549.5474807968657</v>
       </c>
       <c r="AC13" t="n">
-        <v>413.473367434465</v>
+        <v>497.0994405243454</v>
       </c>
       <c r="AD13" t="n">
-        <v>334076.4781293457</v>
+        <v>401644.322101987</v>
       </c>
       <c r="AE13" t="n">
-        <v>457098.1757906018</v>
+        <v>549547.4807968657</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391483356843295e-06</v>
+        <v>2.75678471838817e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>413473.367434465</v>
+        <v>497099.4405243454</v>
       </c>
     </row>
   </sheetData>
